--- a/Documentation/CROUZET 6561 Sequences.xlsx
+++ b/Documentation/CROUZET 6561 Sequences.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CBH439\Documents\_EMA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="11357" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11352"/>
   </bookViews>
   <sheets>
     <sheet name="Chart" sheetId="1" r:id="rId1"/>
     <sheet name="Delicates" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="91">
   <si>
     <t>PROGRAM</t>
   </si>
@@ -303,8 +298,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -685,28 +680,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1009,7 +982,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1056,33 +1029,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1098,16 +1068,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1155,8 +1125,98 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1164,191 +1224,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <color theme="9" tint="-0.24994659260841701"/>
@@ -1356,6 +1290,16 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1383,7 +1327,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1392,67 +1335,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1482,7 +1365,45 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1491,7 +1412,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="medium">
@@ -1519,7 +1440,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1528,7 +1448,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1558,7 +1478,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1567,7 +1486,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1597,7 +1516,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1606,7 +1524,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1636,7 +1554,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1645,7 +1562,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1675,7 +1592,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1684,7 +1600,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1714,7 +1630,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1723,7 +1638,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1753,7 +1668,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1762,7 +1676,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1792,7 +1706,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1801,7 +1714,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1831,7 +1744,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1840,7 +1752,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1870,7 +1782,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1879,7 +1790,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1909,7 +1820,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1918,7 +1828,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -1948,7 +1858,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1957,7 +1866,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -1987,7 +1896,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1996,7 +1904,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -2025,11 +1933,74 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2050,13 +2021,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2612,27 +2583,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:P21" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowBorderDxfId="22" tableBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:P21" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19">
   <autoFilter ref="A2:P21"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="POS" dataDxfId="20"/>
-    <tableColumn id="2" name="STEP" dataDxfId="19"/>
-    <tableColumn id="3" name="19" dataDxfId="18"/>
-    <tableColumn id="4" name="18" dataDxfId="17"/>
-    <tableColumn id="5" name="17" dataDxfId="16"/>
-    <tableColumn id="6" name="15" dataDxfId="15"/>
-    <tableColumn id="7" name="14" dataDxfId="14"/>
-    <tableColumn id="8" name="13" dataDxfId="13"/>
-    <tableColumn id="9" name="11" dataDxfId="12"/>
-    <tableColumn id="10" name="10" dataDxfId="11"/>
-    <tableColumn id="11" name="9" dataDxfId="10"/>
-    <tableColumn id="12" name="7" dataDxfId="9"/>
-    <tableColumn id="13" name="5" dataDxfId="8"/>
-    <tableColumn id="15" name="1" dataDxfId="7"/>
-    <tableColumn id="16" name="STEP " dataDxfId="0">
+    <tableColumn id="1" name="POS" dataDxfId="18"/>
+    <tableColumn id="2" name="STEP" dataDxfId="17"/>
+    <tableColumn id="3" name="19" dataDxfId="16"/>
+    <tableColumn id="4" name="18" dataDxfId="15"/>
+    <tableColumn id="5" name="17" dataDxfId="14"/>
+    <tableColumn id="6" name="15" dataDxfId="13"/>
+    <tableColumn id="7" name="14" dataDxfId="12"/>
+    <tableColumn id="8" name="13" dataDxfId="11"/>
+    <tableColumn id="9" name="11" dataDxfId="10"/>
+    <tableColumn id="10" name="10" dataDxfId="9"/>
+    <tableColumn id="11" name="9" dataDxfId="8"/>
+    <tableColumn id="12" name="7" dataDxfId="7"/>
+    <tableColumn id="13" name="5" dataDxfId="6"/>
+    <tableColumn id="15" name="1" dataDxfId="5"/>
+    <tableColumn id="16" name="STEP " dataDxfId="4">
       <calculatedColumnFormula>Table1[[#This Row],[STEP]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="REMARK" dataDxfId="6"/>
+    <tableColumn id="14" name="REMARK" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2681,7 +2652,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2733,7 +2704,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2927,286 +2898,284 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BL46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BP10" sqref="BP10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="4.625" style="3" customWidth="1"/>
-    <col min="5" max="64" width="2.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="4.6640625" style="3" customWidth="1"/>
+    <col min="5" max="64" width="2.21875" style="3" customWidth="1"/>
     <col min="65" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:64" ht="29.25" customHeight="1">
+      <c r="A1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="60" t="s">
+      <c r="D1" s="89"/>
+      <c r="E1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="60" t="s">
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="62"/>
-      <c r="BA1" s="60" t="s">
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
+      <c r="AW1" s="86"/>
+      <c r="AX1" s="86"/>
+      <c r="AY1" s="86"/>
+      <c r="AZ1" s="87"/>
+      <c r="BA1" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="BB1" s="61"/>
-      <c r="BC1" s="61"/>
-      <c r="BD1" s="61"/>
-      <c r="BE1" s="61"/>
-      <c r="BF1" s="61"/>
-      <c r="BG1" s="61"/>
-      <c r="BH1" s="61"/>
-      <c r="BI1" s="61"/>
-      <c r="BJ1" s="61"/>
-      <c r="BK1" s="61"/>
-      <c r="BL1" s="62"/>
+      <c r="BB1" s="86"/>
+      <c r="BC1" s="86"/>
+      <c r="BD1" s="86"/>
+      <c r="BE1" s="86"/>
+      <c r="BF1" s="86"/>
+      <c r="BG1" s="86"/>
+      <c r="BH1" s="86"/>
+      <c r="BI1" s="86"/>
+      <c r="BJ1" s="86"/>
+      <c r="BK1" s="86"/>
+      <c r="BL1" s="87"/>
     </row>
-    <row r="2" spans="1:64" ht="59.1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="38" t="s">
+    <row r="2" spans="1:64" ht="57" thickBot="1">
+      <c r="A2" s="82"/>
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="42" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43" t="s">
+      <c r="M2" s="41"/>
+      <c r="N2" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="42" t="s">
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="43" t="s">
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="45" t="s">
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="41" t="s">
+      <c r="AH2" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="43" t="s">
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="42" t="s">
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AO2" s="42"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="42"/>
-      <c r="AR2" s="43" t="s">
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="46"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="42" t="s">
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="45"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="AX2" s="42"/>
-      <c r="AY2" s="42"/>
-      <c r="AZ2" s="45" t="s">
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="BA2" s="41" t="s">
+      <c r="BA2" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="BB2" s="42"/>
-      <c r="BC2" s="42"/>
-      <c r="BD2" s="42"/>
-      <c r="BE2" s="42"/>
-      <c r="BF2" s="42"/>
-      <c r="BG2" s="42"/>
-      <c r="BH2" s="42"/>
-      <c r="BI2" s="42"/>
-      <c r="BJ2" s="42"/>
-      <c r="BK2" s="42"/>
-      <c r="BL2" s="45" t="s">
+      <c r="BB2" s="41"/>
+      <c r="BC2" s="41"/>
+      <c r="BD2" s="41"/>
+      <c r="BE2" s="41"/>
+      <c r="BF2" s="41"/>
+      <c r="BG2" s="41"/>
+      <c r="BH2" s="41"/>
+      <c r="BI2" s="41"/>
+      <c r="BJ2" s="41"/>
+      <c r="BK2" s="41"/>
+      <c r="BL2" s="44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
+    <row r="3" spans="1:64" ht="7.05" customHeight="1" thickBot="1">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="32"/>
-      <c r="AJ3" s="32"/>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="32"/>
-      <c r="AO3" s="32"/>
-      <c r="AP3" s="34"/>
-      <c r="AQ3" s="32"/>
-      <c r="AR3" s="33"/>
-      <c r="AS3" s="33"/>
-      <c r="AT3" s="33"/>
-      <c r="AU3" s="36"/>
-      <c r="AV3" s="33"/>
-      <c r="AW3" s="32"/>
-      <c r="AX3" s="32"/>
-      <c r="AY3" s="32"/>
-      <c r="AZ3" s="35"/>
-      <c r="BA3" s="31"/>
-      <c r="BB3" s="32"/>
-      <c r="BC3" s="32"/>
-      <c r="BD3" s="32"/>
-      <c r="BE3" s="32"/>
-      <c r="BF3" s="32"/>
-      <c r="BG3" s="32"/>
-      <c r="BH3" s="32"/>
-      <c r="BI3" s="32"/>
-      <c r="BJ3" s="32"/>
-      <c r="BK3" s="32"/>
-      <c r="BL3" s="35"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="32"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="33"/>
+      <c r="AQ3" s="31"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="32"/>
+      <c r="AU3" s="35"/>
+      <c r="AV3" s="32"/>
+      <c r="AW3" s="31"/>
+      <c r="AX3" s="31"/>
+      <c r="AY3" s="31"/>
+      <c r="AZ3" s="34"/>
+      <c r="BA3" s="30"/>
+      <c r="BB3" s="31"/>
+      <c r="BC3" s="31"/>
+      <c r="BD3" s="31"/>
+      <c r="BE3" s="31"/>
+      <c r="BF3" s="31"/>
+      <c r="BG3" s="31"/>
+      <c r="BH3" s="31"/>
+      <c r="BI3" s="31"/>
+      <c r="BJ3" s="31"/>
+      <c r="BK3" s="31"/>
+      <c r="BL3" s="34"/>
     </row>
-    <row r="4" spans="1:64" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58">
+    <row r="4" spans="1:64" ht="14.25" customHeight="1">
+      <c r="A4" s="81">
         <v>19</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="83">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -3280,7 +3249,7 @@
       <c r="AF4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AG4" s="25" t="s">
+      <c r="AG4" s="24" t="s">
         <v>40</v>
       </c>
       <c r="AH4" s="5" t="s">
@@ -3329,7 +3298,7 @@
       <c r="AY4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AZ4" s="25" t="s">
+      <c r="AZ4" s="24" t="s">
         <v>40</v>
       </c>
       <c r="BA4" s="5" t="s">
@@ -3363,16 +3332,16 @@
       <c r="BK4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="BL4" s="25" t="s">
+      <c r="BL4" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:64" ht="14.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="48" t="s">
+    <row r="5" spans="1:64" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A5" s="82"/>
+      <c r="B5" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
@@ -3416,7 +3385,7 @@
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
-      <c r="AG5" s="26"/>
+      <c r="AG5" s="25"/>
       <c r="AH5" s="9"/>
       <c r="AI5" s="10" t="s">
         <v>40</v>
@@ -3443,7 +3412,7 @@
       <c r="AW5" s="10"/>
       <c r="AX5" s="10"/>
       <c r="AY5" s="10"/>
-      <c r="AZ5" s="26"/>
+      <c r="AZ5" s="25"/>
       <c r="BA5" s="9"/>
       <c r="BB5" s="10" t="s">
         <v>40</v>
@@ -3457,82 +3426,82 @@
       <c r="BI5" s="10"/>
       <c r="BJ5" s="10"/>
       <c r="BK5" s="10"/>
-      <c r="BL5" s="26"/>
+      <c r="BL5" s="25"/>
     </row>
-    <row r="6" spans="1:64" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="49"/>
+    <row r="6" spans="1:64" ht="7.05" customHeight="1" thickBot="1">
+      <c r="A6" s="27"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="15"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="32"/>
-      <c r="AJ6" s="32"/>
-      <c r="AK6" s="32"/>
-      <c r="AL6" s="33"/>
-      <c r="AM6" s="33"/>
-      <c r="AN6" s="32"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="34"/>
-      <c r="AQ6" s="32"/>
-      <c r="AR6" s="33"/>
-      <c r="AS6" s="33"/>
-      <c r="AT6" s="33"/>
-      <c r="AU6" s="36"/>
-      <c r="AV6" s="33"/>
-      <c r="AW6" s="32"/>
-      <c r="AX6" s="32"/>
-      <c r="AY6" s="32"/>
-      <c r="AZ6" s="35"/>
-      <c r="BA6" s="31"/>
-      <c r="BB6" s="32"/>
-      <c r="BC6" s="32"/>
-      <c r="BD6" s="32"/>
-      <c r="BE6" s="32"/>
-      <c r="BF6" s="32"/>
-      <c r="BG6" s="32"/>
-      <c r="BH6" s="32"/>
-      <c r="BI6" s="32"/>
-      <c r="BJ6" s="32"/>
-      <c r="BK6" s="32"/>
-      <c r="BL6" s="35"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="31"/>
+      <c r="AJ6" s="31"/>
+      <c r="AK6" s="31"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
+      <c r="AN6" s="31"/>
+      <c r="AO6" s="31"/>
+      <c r="AP6" s="33"/>
+      <c r="AQ6" s="31"/>
+      <c r="AR6" s="32"/>
+      <c r="AS6" s="32"/>
+      <c r="AT6" s="32"/>
+      <c r="AU6" s="35"/>
+      <c r="AV6" s="32"/>
+      <c r="AW6" s="31"/>
+      <c r="AX6" s="31"/>
+      <c r="AY6" s="31"/>
+      <c r="AZ6" s="34"/>
+      <c r="BA6" s="30"/>
+      <c r="BB6" s="31"/>
+      <c r="BC6" s="31"/>
+      <c r="BD6" s="31"/>
+      <c r="BE6" s="31"/>
+      <c r="BF6" s="31"/>
+      <c r="BG6" s="31"/>
+      <c r="BH6" s="31"/>
+      <c r="BI6" s="31"/>
+      <c r="BJ6" s="31"/>
+      <c r="BK6" s="31"/>
+      <c r="BL6" s="34"/>
     </row>
-    <row r="7" spans="1:64" ht="14.3" x14ac:dyDescent="0.25">
-      <c r="A7" s="58">
+    <row r="7" spans="1:64">
+      <c r="A7" s="81">
         <v>18</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="83">
         <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -3622,7 +3591,7 @@
       <c r="AF7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AG7" s="25"/>
+      <c r="AG7" s="24"/>
       <c r="AH7" s="5" t="s">
         <v>40</v>
       </c>
@@ -3677,7 +3646,7 @@
       <c r="AY7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AZ7" s="25"/>
+      <c r="AZ7" s="24"/>
       <c r="BA7" s="5" t="s">
         <v>40</v>
       </c>
@@ -3711,14 +3680,14 @@
       <c r="BK7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="BL7" s="25"/>
+      <c r="BL7" s="24"/>
     </row>
-    <row r="8" spans="1:64" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
-      <c r="B8" s="48" t="s">
+    <row r="8" spans="1:64" ht="14.4" thickBot="1">
+      <c r="A8" s="82"/>
+      <c r="B8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="55"/>
+      <c r="C8" s="84"/>
       <c r="D8" s="8" t="s">
         <v>7</v>
       </c>
@@ -3750,7 +3719,7 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
-      <c r="AG8" s="26"/>
+      <c r="AG8" s="25"/>
       <c r="AH8" s="9"/>
       <c r="AI8" s="10"/>
       <c r="AJ8" s="10"/>
@@ -3769,7 +3738,7 @@
       <c r="AW8" s="10"/>
       <c r="AX8" s="10"/>
       <c r="AY8" s="10"/>
-      <c r="AZ8" s="26"/>
+      <c r="AZ8" s="25"/>
       <c r="BA8" s="9"/>
       <c r="BB8" s="10"/>
       <c r="BC8" s="10"/>
@@ -3781,82 +3750,82 @@
       <c r="BI8" s="10"/>
       <c r="BJ8" s="10"/>
       <c r="BK8" s="10"/>
-      <c r="BL8" s="26"/>
+      <c r="BL8" s="25"/>
     </row>
-    <row r="9" spans="1:64" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="49"/>
+    <row r="9" spans="1:64" ht="7.05" customHeight="1" thickBot="1">
+      <c r="A9" s="27"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="15"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="31"/>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="33"/>
-      <c r="AM9" s="33"/>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="34"/>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="33"/>
-      <c r="AT9" s="33"/>
-      <c r="AU9" s="36"/>
-      <c r="AV9" s="33"/>
-      <c r="AW9" s="32"/>
-      <c r="AX9" s="32"/>
-      <c r="AY9" s="32"/>
-      <c r="AZ9" s="35"/>
-      <c r="BA9" s="31"/>
-      <c r="BB9" s="32"/>
-      <c r="BC9" s="32"/>
-      <c r="BD9" s="32"/>
-      <c r="BE9" s="32"/>
-      <c r="BF9" s="32"/>
-      <c r="BG9" s="32"/>
-      <c r="BH9" s="32"/>
-      <c r="BI9" s="32"/>
-      <c r="BJ9" s="32"/>
-      <c r="BK9" s="32"/>
-      <c r="BL9" s="35"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="30"/>
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="31"/>
+      <c r="AL9" s="32"/>
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="33"/>
+      <c r="AQ9" s="31"/>
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="32"/>
+      <c r="AU9" s="35"/>
+      <c r="AV9" s="32"/>
+      <c r="AW9" s="31"/>
+      <c r="AX9" s="31"/>
+      <c r="AY9" s="31"/>
+      <c r="AZ9" s="34"/>
+      <c r="BA9" s="30"/>
+      <c r="BB9" s="31"/>
+      <c r="BC9" s="31"/>
+      <c r="BD9" s="31"/>
+      <c r="BE9" s="31"/>
+      <c r="BF9" s="31"/>
+      <c r="BG9" s="31"/>
+      <c r="BH9" s="31"/>
+      <c r="BI9" s="31"/>
+      <c r="BJ9" s="31"/>
+      <c r="BK9" s="31"/>
+      <c r="BL9" s="34"/>
     </row>
-    <row r="10" spans="1:64" ht="14.3" x14ac:dyDescent="0.25">
-      <c r="A10" s="58">
+    <row r="10" spans="1:64">
+      <c r="A10" s="81">
         <v>17</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="83">
         <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -3890,7 +3859,7 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
-      <c r="AG10" s="25"/>
+      <c r="AG10" s="24"/>
       <c r="AH10" s="5"/>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
@@ -3909,7 +3878,7 @@
       <c r="AW10" s="6"/>
       <c r="AX10" s="6"/>
       <c r="AY10" s="6"/>
-      <c r="AZ10" s="25"/>
+      <c r="AZ10" s="24"/>
       <c r="BA10" s="5"/>
       <c r="BB10" s="6"/>
       <c r="BC10" s="6"/>
@@ -3921,14 +3890,14 @@
       <c r="BI10" s="6"/>
       <c r="BJ10" s="6"/>
       <c r="BK10" s="6"/>
-      <c r="BL10" s="25"/>
+      <c r="BL10" s="24"/>
     </row>
-    <row r="11" spans="1:64" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="48" t="s">
+    <row r="11" spans="1:64" ht="14.4" thickBot="1">
+      <c r="A11" s="82"/>
+      <c r="B11" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="55"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="8" t="s">
         <v>7</v>
       </c>
@@ -3988,7 +3957,7 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
-      <c r="AG11" s="26"/>
+      <c r="AG11" s="25"/>
       <c r="AH11" s="9" t="s">
         <v>40</v>
       </c>
@@ -4019,7 +3988,7 @@
       </c>
       <c r="AX11" s="10"/>
       <c r="AY11" s="10"/>
-      <c r="AZ11" s="26"/>
+      <c r="AZ11" s="25"/>
       <c r="BA11" s="9" t="s">
         <v>40</v>
       </c>
@@ -4045,82 +4014,82 @@
         <v>40</v>
       </c>
       <c r="BK11" s="10"/>
-      <c r="BL11" s="26"/>
+      <c r="BL11" s="25"/>
     </row>
-    <row r="12" spans="1:64" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="49"/>
+    <row r="12" spans="1:64" ht="7.05" customHeight="1" thickBot="1">
+      <c r="A12" s="27"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="33"/>
-      <c r="AD12" s="33"/>
-      <c r="AE12" s="33"/>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="35"/>
-      <c r="AH12" s="31"/>
-      <c r="AI12" s="32"/>
-      <c r="AJ12" s="32"/>
-      <c r="AK12" s="32"/>
-      <c r="AL12" s="33"/>
-      <c r="AM12" s="33"/>
-      <c r="AN12" s="32"/>
-      <c r="AO12" s="32"/>
-      <c r="AP12" s="34"/>
-      <c r="AQ12" s="32"/>
-      <c r="AR12" s="33"/>
-      <c r="AS12" s="33"/>
-      <c r="AT12" s="33"/>
-      <c r="AU12" s="36"/>
-      <c r="AV12" s="33"/>
-      <c r="AW12" s="32"/>
-      <c r="AX12" s="32"/>
-      <c r="AY12" s="32"/>
-      <c r="AZ12" s="35"/>
-      <c r="BA12" s="31"/>
-      <c r="BB12" s="32"/>
-      <c r="BC12" s="32"/>
-      <c r="BD12" s="32"/>
-      <c r="BE12" s="32"/>
-      <c r="BF12" s="32"/>
-      <c r="BG12" s="32"/>
-      <c r="BH12" s="32"/>
-      <c r="BI12" s="32"/>
-      <c r="BJ12" s="32"/>
-      <c r="BK12" s="32"/>
-      <c r="BL12" s="35"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="32"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="31"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="31"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="32"/>
+      <c r="AN12" s="31"/>
+      <c r="AO12" s="31"/>
+      <c r="AP12" s="33"/>
+      <c r="AQ12" s="31"/>
+      <c r="AR12" s="32"/>
+      <c r="AS12" s="32"/>
+      <c r="AT12" s="32"/>
+      <c r="AU12" s="35"/>
+      <c r="AV12" s="32"/>
+      <c r="AW12" s="31"/>
+      <c r="AX12" s="31"/>
+      <c r="AY12" s="31"/>
+      <c r="AZ12" s="34"/>
+      <c r="BA12" s="30"/>
+      <c r="BB12" s="31"/>
+      <c r="BC12" s="31"/>
+      <c r="BD12" s="31"/>
+      <c r="BE12" s="31"/>
+      <c r="BF12" s="31"/>
+      <c r="BG12" s="31"/>
+      <c r="BH12" s="31"/>
+      <c r="BI12" s="31"/>
+      <c r="BJ12" s="31"/>
+      <c r="BK12" s="31"/>
+      <c r="BL12" s="34"/>
     </row>
-    <row r="13" spans="1:64" ht="14.3" x14ac:dyDescent="0.25">
-      <c r="A13" s="58">
+    <row r="13" spans="1:64">
+      <c r="A13" s="81">
         <v>15</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="83">
         <v>15</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -4204,7 +4173,7 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-      <c r="AG13" s="25"/>
+      <c r="AG13" s="24"/>
       <c r="AH13" s="5"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
@@ -4247,7 +4216,7 @@
       <c r="AW13" s="6"/>
       <c r="AX13" s="6"/>
       <c r="AY13" s="6"/>
-      <c r="AZ13" s="25" t="s">
+      <c r="AZ13" s="24" t="s">
         <v>40</v>
       </c>
       <c r="BA13" s="5" t="s">
@@ -4283,16 +4252,16 @@
       <c r="BK13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="BL13" s="25" t="s">
+      <c r="BL13" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:64" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="59"/>
-      <c r="B14" s="48" t="s">
+    <row r="14" spans="1:64" ht="14.4" thickBot="1">
+      <c r="A14" s="82"/>
+      <c r="B14" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="55"/>
+      <c r="C14" s="84"/>
       <c r="D14" s="8" t="s">
         <v>7</v>
       </c>
@@ -4330,7 +4299,7 @@
       <c r="AF14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AG14" s="26"/>
+      <c r="AG14" s="25"/>
       <c r="AH14" s="9"/>
       <c r="AI14" s="10"/>
       <c r="AJ14" s="10"/>
@@ -4353,7 +4322,7 @@
       <c r="AY14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AZ14" s="26"/>
+      <c r="AZ14" s="25"/>
       <c r="BA14" s="9"/>
       <c r="BB14" s="10"/>
       <c r="BC14" s="10"/>
@@ -4365,82 +4334,82 @@
       <c r="BI14" s="10"/>
       <c r="BJ14" s="10"/>
       <c r="BK14" s="10"/>
-      <c r="BL14" s="26"/>
+      <c r="BL14" s="25"/>
     </row>
-    <row r="15" spans="1:64" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="49"/>
+    <row r="15" spans="1:64" ht="7.05" customHeight="1" thickBot="1">
+      <c r="A15" s="27"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="33"/>
-      <c r="AG15" s="35"/>
-      <c r="AH15" s="31"/>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="32"/>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="33"/>
-      <c r="AM15" s="33"/>
-      <c r="AN15" s="32"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="34"/>
-      <c r="AQ15" s="32"/>
-      <c r="AR15" s="33"/>
-      <c r="AS15" s="33"/>
-      <c r="AT15" s="33"/>
-      <c r="AU15" s="36"/>
-      <c r="AV15" s="33"/>
-      <c r="AW15" s="32"/>
-      <c r="AX15" s="32"/>
-      <c r="AY15" s="32"/>
-      <c r="AZ15" s="35"/>
-      <c r="BA15" s="31"/>
-      <c r="BB15" s="32"/>
-      <c r="BC15" s="32"/>
-      <c r="BD15" s="32"/>
-      <c r="BE15" s="32"/>
-      <c r="BF15" s="32"/>
-      <c r="BG15" s="32"/>
-      <c r="BH15" s="32"/>
-      <c r="BI15" s="32"/>
-      <c r="BJ15" s="32"/>
-      <c r="BK15" s="32"/>
-      <c r="BL15" s="35"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="34"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="31"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="31"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="32"/>
+      <c r="AN15" s="31"/>
+      <c r="AO15" s="31"/>
+      <c r="AP15" s="33"/>
+      <c r="AQ15" s="31"/>
+      <c r="AR15" s="32"/>
+      <c r="AS15" s="32"/>
+      <c r="AT15" s="32"/>
+      <c r="AU15" s="35"/>
+      <c r="AV15" s="32"/>
+      <c r="AW15" s="31"/>
+      <c r="AX15" s="31"/>
+      <c r="AY15" s="31"/>
+      <c r="AZ15" s="34"/>
+      <c r="BA15" s="30"/>
+      <c r="BB15" s="31"/>
+      <c r="BC15" s="31"/>
+      <c r="BD15" s="31"/>
+      <c r="BE15" s="31"/>
+      <c r="BF15" s="31"/>
+      <c r="BG15" s="31"/>
+      <c r="BH15" s="31"/>
+      <c r="BI15" s="31"/>
+      <c r="BJ15" s="31"/>
+      <c r="BK15" s="31"/>
+      <c r="BL15" s="34"/>
     </row>
-    <row r="16" spans="1:64" ht="14.3" x14ac:dyDescent="0.25">
-      <c r="A16" s="58">
+    <row r="16" spans="1:64">
+      <c r="A16" s="81">
         <v>14</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="83">
         <v>14</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -4494,7 +4463,7 @@
       <c r="AF16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AG16" s="25"/>
+      <c r="AG16" s="24"/>
       <c r="AH16" s="5"/>
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
@@ -4525,7 +4494,7 @@
       <c r="AY16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AZ16" s="25"/>
+      <c r="AZ16" s="24"/>
       <c r="BA16" s="5"/>
       <c r="BB16" s="6"/>
       <c r="BC16" s="6"/>
@@ -4547,14 +4516,14 @@
       <c r="BK16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="BL16" s="25"/>
+      <c r="BL16" s="24"/>
     </row>
-    <row r="17" spans="1:64" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59"/>
-      <c r="B17" s="48" t="s">
+    <row r="17" spans="1:64" ht="14.4" thickBot="1">
+      <c r="A17" s="82"/>
+      <c r="B17" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="55"/>
+      <c r="C17" s="84"/>
       <c r="D17" s="8" t="s">
         <v>7</v>
       </c>
@@ -4600,7 +4569,7 @@
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
-      <c r="AG17" s="26"/>
+      <c r="AG17" s="25"/>
       <c r="AH17" s="9"/>
       <c r="AI17" s="10"/>
       <c r="AJ17" s="10"/>
@@ -4621,7 +4590,7 @@
       <c r="AW17" s="10"/>
       <c r="AX17" s="10"/>
       <c r="AY17" s="10"/>
-      <c r="AZ17" s="26"/>
+      <c r="AZ17" s="25"/>
       <c r="BA17" s="9"/>
       <c r="BB17" s="10"/>
       <c r="BC17" s="10"/>
@@ -4633,82 +4602,82 @@
       <c r="BI17" s="10"/>
       <c r="BJ17" s="10"/>
       <c r="BK17" s="10"/>
-      <c r="BL17" s="26"/>
+      <c r="BL17" s="25"/>
     </row>
-    <row r="18" spans="1:64" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="49"/>
+    <row r="18" spans="1:64" ht="7.05" customHeight="1" thickBot="1">
+      <c r="A18" s="27"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="33"/>
-      <c r="AF18" s="33"/>
-      <c r="AG18" s="35"/>
-      <c r="AH18" s="31"/>
-      <c r="AI18" s="32"/>
-      <c r="AJ18" s="32"/>
-      <c r="AK18" s="32"/>
-      <c r="AL18" s="33"/>
-      <c r="AM18" s="33"/>
-      <c r="AN18" s="32"/>
-      <c r="AO18" s="32"/>
-      <c r="AP18" s="34"/>
-      <c r="AQ18" s="32"/>
-      <c r="AR18" s="33"/>
-      <c r="AS18" s="33"/>
-      <c r="AT18" s="33"/>
-      <c r="AU18" s="36"/>
-      <c r="AV18" s="33"/>
-      <c r="AW18" s="32"/>
-      <c r="AX18" s="32"/>
-      <c r="AY18" s="32"/>
-      <c r="AZ18" s="35"/>
-      <c r="BA18" s="31"/>
-      <c r="BB18" s="32"/>
-      <c r="BC18" s="32"/>
-      <c r="BD18" s="32"/>
-      <c r="BE18" s="32"/>
-      <c r="BF18" s="32"/>
-      <c r="BG18" s="32"/>
-      <c r="BH18" s="32"/>
-      <c r="BI18" s="32"/>
-      <c r="BJ18" s="32"/>
-      <c r="BK18" s="32"/>
-      <c r="BL18" s="35"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="32"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="32"/>
+      <c r="AF18" s="32"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="30"/>
+      <c r="AI18" s="31"/>
+      <c r="AJ18" s="31"/>
+      <c r="AK18" s="31"/>
+      <c r="AL18" s="32"/>
+      <c r="AM18" s="32"/>
+      <c r="AN18" s="31"/>
+      <c r="AO18" s="31"/>
+      <c r="AP18" s="33"/>
+      <c r="AQ18" s="31"/>
+      <c r="AR18" s="32"/>
+      <c r="AS18" s="32"/>
+      <c r="AT18" s="32"/>
+      <c r="AU18" s="35"/>
+      <c r="AV18" s="32"/>
+      <c r="AW18" s="31"/>
+      <c r="AX18" s="31"/>
+      <c r="AY18" s="31"/>
+      <c r="AZ18" s="34"/>
+      <c r="BA18" s="30"/>
+      <c r="BB18" s="31"/>
+      <c r="BC18" s="31"/>
+      <c r="BD18" s="31"/>
+      <c r="BE18" s="31"/>
+      <c r="BF18" s="31"/>
+      <c r="BG18" s="31"/>
+      <c r="BH18" s="31"/>
+      <c r="BI18" s="31"/>
+      <c r="BJ18" s="31"/>
+      <c r="BK18" s="31"/>
+      <c r="BL18" s="34"/>
     </row>
-    <row r="19" spans="1:64" ht="14.3" x14ac:dyDescent="0.25">
-      <c r="A19" s="58">
+    <row r="19" spans="1:64">
+      <c r="A19" s="81">
         <v>13</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="83">
         <v>13</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -4752,7 +4721,7 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
-      <c r="AG19" s="25"/>
+      <c r="AG19" s="24"/>
       <c r="AH19" s="5"/>
       <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
@@ -4775,7 +4744,7 @@
       <c r="AW19" s="6"/>
       <c r="AX19" s="6"/>
       <c r="AY19" s="6"/>
-      <c r="AZ19" s="25"/>
+      <c r="AZ19" s="24"/>
       <c r="BA19" s="5"/>
       <c r="BB19" s="6"/>
       <c r="BC19" s="6"/>
@@ -4787,14 +4756,14 @@
       <c r="BI19" s="6"/>
       <c r="BJ19" s="6"/>
       <c r="BK19" s="6"/>
-      <c r="BL19" s="25"/>
+      <c r="BL19" s="24"/>
     </row>
-    <row r="20" spans="1:64" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
-      <c r="B20" s="48" t="s">
+    <row r="20" spans="1:64" ht="14.4" thickBot="1">
+      <c r="A20" s="82"/>
+      <c r="B20" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="55"/>
+      <c r="C20" s="84"/>
       <c r="D20" s="8" t="s">
         <v>7</v>
       </c>
@@ -4828,7 +4797,7 @@
         <v>40</v>
       </c>
       <c r="AF20" s="2"/>
-      <c r="AG20" s="26"/>
+      <c r="AG20" s="25"/>
       <c r="AH20" s="9"/>
       <c r="AI20" s="10"/>
       <c r="AJ20" s="10"/>
@@ -4847,7 +4816,7 @@
       <c r="AW20" s="10"/>
       <c r="AX20" s="10"/>
       <c r="AY20" s="10"/>
-      <c r="AZ20" s="26"/>
+      <c r="AZ20" s="25"/>
       <c r="BA20" s="9"/>
       <c r="BB20" s="10"/>
       <c r="BC20" s="10"/>
@@ -4859,82 +4828,82 @@
       <c r="BI20" s="10"/>
       <c r="BJ20" s="10"/>
       <c r="BK20" s="10"/>
-      <c r="BL20" s="26"/>
+      <c r="BL20" s="25"/>
     </row>
-    <row r="21" spans="1:64" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="49"/>
+    <row r="21" spans="1:64" ht="7.05" customHeight="1" thickBot="1">
+      <c r="A21" s="27"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="33"/>
-      <c r="AG21" s="35"/>
-      <c r="AH21" s="31"/>
-      <c r="AI21" s="32"/>
-      <c r="AJ21" s="32"/>
-      <c r="AK21" s="32"/>
-      <c r="AL21" s="33"/>
-      <c r="AM21" s="33"/>
-      <c r="AN21" s="32"/>
-      <c r="AO21" s="32"/>
-      <c r="AP21" s="34"/>
-      <c r="AQ21" s="32"/>
-      <c r="AR21" s="33"/>
-      <c r="AS21" s="33"/>
-      <c r="AT21" s="33"/>
-      <c r="AU21" s="36"/>
-      <c r="AV21" s="33"/>
-      <c r="AW21" s="32"/>
-      <c r="AX21" s="32"/>
-      <c r="AY21" s="32"/>
-      <c r="AZ21" s="35"/>
-      <c r="BA21" s="31"/>
-      <c r="BB21" s="32"/>
-      <c r="BC21" s="32"/>
-      <c r="BD21" s="32"/>
-      <c r="BE21" s="32"/>
-      <c r="BF21" s="32"/>
-      <c r="BG21" s="32"/>
-      <c r="BH21" s="32"/>
-      <c r="BI21" s="32"/>
-      <c r="BJ21" s="32"/>
-      <c r="BK21" s="32"/>
-      <c r="BL21" s="35"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="32"/>
+      <c r="AG21" s="34"/>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="31"/>
+      <c r="AJ21" s="31"/>
+      <c r="AK21" s="31"/>
+      <c r="AL21" s="32"/>
+      <c r="AM21" s="32"/>
+      <c r="AN21" s="31"/>
+      <c r="AO21" s="31"/>
+      <c r="AP21" s="33"/>
+      <c r="AQ21" s="31"/>
+      <c r="AR21" s="32"/>
+      <c r="AS21" s="32"/>
+      <c r="AT21" s="32"/>
+      <c r="AU21" s="35"/>
+      <c r="AV21" s="32"/>
+      <c r="AW21" s="31"/>
+      <c r="AX21" s="31"/>
+      <c r="AY21" s="31"/>
+      <c r="AZ21" s="34"/>
+      <c r="BA21" s="30"/>
+      <c r="BB21" s="31"/>
+      <c r="BC21" s="31"/>
+      <c r="BD21" s="31"/>
+      <c r="BE21" s="31"/>
+      <c r="BF21" s="31"/>
+      <c r="BG21" s="31"/>
+      <c r="BH21" s="31"/>
+      <c r="BI21" s="31"/>
+      <c r="BJ21" s="31"/>
+      <c r="BK21" s="31"/>
+      <c r="BL21" s="34"/>
     </row>
-    <row r="22" spans="1:64" ht="14.3" x14ac:dyDescent="0.25">
-      <c r="A22" s="58">
+    <row r="22" spans="1:64">
+      <c r="A22" s="81">
         <v>11</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="54">
+      <c r="C22" s="83">
         <v>11</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -4990,7 +4959,7 @@
       <c r="AF22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AG22" s="25"/>
+      <c r="AG22" s="24"/>
       <c r="AH22" s="5"/>
       <c r="AI22" s="6"/>
       <c r="AJ22" s="6"/>
@@ -5023,7 +4992,7 @@
       <c r="AY22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AZ22" s="25"/>
+      <c r="AZ22" s="24"/>
       <c r="BA22" s="5"/>
       <c r="BB22" s="6"/>
       <c r="BC22" s="6"/>
@@ -5045,14 +5014,14 @@
       <c r="BK22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="BL22" s="25"/>
+      <c r="BL22" s="24"/>
     </row>
-    <row r="23" spans="1:64" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="59"/>
-      <c r="B23" s="48" t="s">
+    <row r="23" spans="1:64" ht="14.4" thickBot="1">
+      <c r="A23" s="82"/>
+      <c r="B23" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="55"/>
+      <c r="C23" s="84"/>
       <c r="D23" s="8" t="s">
         <v>7</v>
       </c>
@@ -5094,7 +5063,7 @@
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
-      <c r="AG23" s="26"/>
+      <c r="AG23" s="25"/>
       <c r="AH23" s="9"/>
       <c r="AI23" s="10" t="s">
         <v>40</v>
@@ -5121,7 +5090,7 @@
       <c r="AW23" s="10"/>
       <c r="AX23" s="10"/>
       <c r="AY23" s="10"/>
-      <c r="AZ23" s="26"/>
+      <c r="AZ23" s="25"/>
       <c r="BA23" s="9"/>
       <c r="BB23" s="10" t="s">
         <v>40</v>
@@ -5135,82 +5104,82 @@
       <c r="BI23" s="10"/>
       <c r="BJ23" s="10"/>
       <c r="BK23" s="10"/>
-      <c r="BL23" s="26"/>
+      <c r="BL23" s="25"/>
     </row>
-    <row r="24" spans="1:64" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="49"/>
+    <row r="24" spans="1:64" ht="7.05" customHeight="1" thickBot="1">
+      <c r="A24" s="27"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="33"/>
-      <c r="AF24" s="33"/>
-      <c r="AG24" s="35"/>
-      <c r="AH24" s="31"/>
-      <c r="AI24" s="32"/>
-      <c r="AJ24" s="32"/>
-      <c r="AK24" s="32"/>
-      <c r="AL24" s="33"/>
-      <c r="AM24" s="33"/>
-      <c r="AN24" s="32"/>
-      <c r="AO24" s="32"/>
-      <c r="AP24" s="34"/>
-      <c r="AQ24" s="32"/>
-      <c r="AR24" s="33"/>
-      <c r="AS24" s="33"/>
-      <c r="AT24" s="33"/>
-      <c r="AU24" s="36"/>
-      <c r="AV24" s="33"/>
-      <c r="AW24" s="32"/>
-      <c r="AX24" s="32"/>
-      <c r="AY24" s="32"/>
-      <c r="AZ24" s="35"/>
-      <c r="BA24" s="31"/>
-      <c r="BB24" s="32"/>
-      <c r="BC24" s="32"/>
-      <c r="BD24" s="32"/>
-      <c r="BE24" s="32"/>
-      <c r="BF24" s="32"/>
-      <c r="BG24" s="32"/>
-      <c r="BH24" s="32"/>
-      <c r="BI24" s="32"/>
-      <c r="BJ24" s="32"/>
-      <c r="BK24" s="32"/>
-      <c r="BL24" s="35"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="32"/>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="32"/>
+      <c r="AF24" s="32"/>
+      <c r="AG24" s="34"/>
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="31"/>
+      <c r="AJ24" s="31"/>
+      <c r="AK24" s="31"/>
+      <c r="AL24" s="32"/>
+      <c r="AM24" s="32"/>
+      <c r="AN24" s="31"/>
+      <c r="AO24" s="31"/>
+      <c r="AP24" s="33"/>
+      <c r="AQ24" s="31"/>
+      <c r="AR24" s="32"/>
+      <c r="AS24" s="32"/>
+      <c r="AT24" s="32"/>
+      <c r="AU24" s="35"/>
+      <c r="AV24" s="32"/>
+      <c r="AW24" s="31"/>
+      <c r="AX24" s="31"/>
+      <c r="AY24" s="31"/>
+      <c r="AZ24" s="34"/>
+      <c r="BA24" s="30"/>
+      <c r="BB24" s="31"/>
+      <c r="BC24" s="31"/>
+      <c r="BD24" s="31"/>
+      <c r="BE24" s="31"/>
+      <c r="BF24" s="31"/>
+      <c r="BG24" s="31"/>
+      <c r="BH24" s="31"/>
+      <c r="BI24" s="31"/>
+      <c r="BJ24" s="31"/>
+      <c r="BK24" s="31"/>
+      <c r="BL24" s="34"/>
     </row>
-    <row r="25" spans="1:64" ht="14.3" x14ac:dyDescent="0.25">
-      <c r="A25" s="58">
+    <row r="25" spans="1:64">
+      <c r="A25" s="81">
         <v>10</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="54">
+      <c r="C25" s="83">
         <v>10</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -5244,7 +5213,7 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
-      <c r="AG25" s="25" t="s">
+      <c r="AG25" s="24" t="s">
         <v>40</v>
       </c>
       <c r="AH25" s="5"/>
@@ -5271,7 +5240,7 @@
       </c>
       <c r="AX25" s="6"/>
       <c r="AY25" s="6"/>
-      <c r="AZ25" s="25" t="s">
+      <c r="AZ25" s="24" t="s">
         <v>40</v>
       </c>
       <c r="BA25" s="5" t="s">
@@ -5297,16 +5266,16 @@
       </c>
       <c r="BJ25" s="6"/>
       <c r="BK25" s="6"/>
-      <c r="BL25" s="25" t="s">
+      <c r="BL25" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:64" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="59"/>
-      <c r="B26" s="48" t="s">
+    <row r="26" spans="1:64" ht="14.4" thickBot="1">
+      <c r="A26" s="82"/>
+      <c r="B26" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="55"/>
+      <c r="C26" s="84"/>
       <c r="D26" s="8" t="s">
         <v>7</v>
       </c>
@@ -5352,7 +5321,7 @@
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
-      <c r="AG26" s="26"/>
+      <c r="AG26" s="25"/>
       <c r="AH26" s="9" t="s">
         <v>40</v>
       </c>
@@ -5387,7 +5356,7 @@
       <c r="AW26" s="10"/>
       <c r="AX26" s="10"/>
       <c r="AY26" s="10"/>
-      <c r="AZ26" s="26"/>
+      <c r="AZ26" s="25"/>
       <c r="BA26" s="9"/>
       <c r="BB26" s="10"/>
       <c r="BC26" s="10"/>
@@ -5399,82 +5368,82 @@
       <c r="BI26" s="10"/>
       <c r="BJ26" s="10"/>
       <c r="BK26" s="10"/>
-      <c r="BL26" s="26"/>
+      <c r="BL26" s="25"/>
     </row>
-    <row r="27" spans="1:64" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="49"/>
+    <row r="27" spans="1:64" ht="7.05" customHeight="1" thickBot="1">
+      <c r="A27" s="27"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33"/>
-      <c r="AE27" s="33"/>
-      <c r="AF27" s="33"/>
-      <c r="AG27" s="35"/>
-      <c r="AH27" s="31"/>
-      <c r="AI27" s="32"/>
-      <c r="AJ27" s="32"/>
-      <c r="AK27" s="32"/>
-      <c r="AL27" s="33"/>
-      <c r="AM27" s="33"/>
-      <c r="AN27" s="32"/>
-      <c r="AO27" s="32"/>
-      <c r="AP27" s="34"/>
-      <c r="AQ27" s="32"/>
-      <c r="AR27" s="33"/>
-      <c r="AS27" s="33"/>
-      <c r="AT27" s="33"/>
-      <c r="AU27" s="36"/>
-      <c r="AV27" s="33"/>
-      <c r="AW27" s="32"/>
-      <c r="AX27" s="32"/>
-      <c r="AY27" s="32"/>
-      <c r="AZ27" s="35"/>
-      <c r="BA27" s="31"/>
-      <c r="BB27" s="32"/>
-      <c r="BC27" s="32"/>
-      <c r="BD27" s="32"/>
-      <c r="BE27" s="32"/>
-      <c r="BF27" s="32"/>
-      <c r="BG27" s="32"/>
-      <c r="BH27" s="32"/>
-      <c r="BI27" s="32"/>
-      <c r="BJ27" s="32"/>
-      <c r="BK27" s="32"/>
-      <c r="BL27" s="35"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="31"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="32"/>
+      <c r="AF27" s="32"/>
+      <c r="AG27" s="34"/>
+      <c r="AH27" s="30"/>
+      <c r="AI27" s="31"/>
+      <c r="AJ27" s="31"/>
+      <c r="AK27" s="31"/>
+      <c r="AL27" s="32"/>
+      <c r="AM27" s="32"/>
+      <c r="AN27" s="31"/>
+      <c r="AO27" s="31"/>
+      <c r="AP27" s="33"/>
+      <c r="AQ27" s="31"/>
+      <c r="AR27" s="32"/>
+      <c r="AS27" s="32"/>
+      <c r="AT27" s="32"/>
+      <c r="AU27" s="35"/>
+      <c r="AV27" s="32"/>
+      <c r="AW27" s="31"/>
+      <c r="AX27" s="31"/>
+      <c r="AY27" s="31"/>
+      <c r="AZ27" s="34"/>
+      <c r="BA27" s="30"/>
+      <c r="BB27" s="31"/>
+      <c r="BC27" s="31"/>
+      <c r="BD27" s="31"/>
+      <c r="BE27" s="31"/>
+      <c r="BF27" s="31"/>
+      <c r="BG27" s="31"/>
+      <c r="BH27" s="31"/>
+      <c r="BI27" s="31"/>
+      <c r="BJ27" s="31"/>
+      <c r="BK27" s="31"/>
+      <c r="BL27" s="34"/>
     </row>
-    <row r="28" spans="1:64" ht="14.3" x14ac:dyDescent="0.25">
-      <c r="A28" s="58">
+    <row r="28" spans="1:64">
+      <c r="A28" s="81">
         <v>9</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="54">
+      <c r="C28" s="83">
         <v>9</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -5510,7 +5479,7 @@
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
-      <c r="AG28" s="25"/>
+      <c r="AG28" s="24"/>
       <c r="AH28" s="5"/>
       <c r="AI28" s="6"/>
       <c r="AJ28" s="6"/>
@@ -5529,7 +5498,7 @@
       <c r="AW28" s="6"/>
       <c r="AX28" s="6"/>
       <c r="AY28" s="6"/>
-      <c r="AZ28" s="25"/>
+      <c r="AZ28" s="24"/>
       <c r="BA28" s="5"/>
       <c r="BB28" s="6"/>
       <c r="BC28" s="6"/>
@@ -5541,14 +5510,14 @@
       <c r="BI28" s="6"/>
       <c r="BJ28" s="6"/>
       <c r="BK28" s="6"/>
-      <c r="BL28" s="25"/>
+      <c r="BL28" s="24"/>
     </row>
-    <row r="29" spans="1:64" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
-      <c r="B29" s="48" t="s">
+    <row r="29" spans="1:64" ht="14.4" thickBot="1">
+      <c r="A29" s="82"/>
+      <c r="B29" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="55"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="8" t="s">
         <v>7</v>
       </c>
@@ -5588,7 +5557,7 @@
       <c r="AF29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AG29" s="26"/>
+      <c r="AG29" s="25"/>
       <c r="AH29" s="9"/>
       <c r="AI29" s="10"/>
       <c r="AJ29" s="10"/>
@@ -5611,7 +5580,7 @@
       <c r="AY29" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AZ29" s="26"/>
+      <c r="AZ29" s="25"/>
       <c r="BA29" s="9"/>
       <c r="BB29" s="10"/>
       <c r="BC29" s="10"/>
@@ -5625,82 +5594,82 @@
       <c r="BK29" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="BL29" s="26"/>
+      <c r="BL29" s="25"/>
     </row>
-    <row r="30" spans="1:64" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" s="49"/>
+    <row r="30" spans="1:64" ht="7.05" customHeight="1" thickBot="1">
+      <c r="A30" s="27"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="32"/>
-      <c r="AB30" s="34"/>
-      <c r="AC30" s="33"/>
-      <c r="AD30" s="33"/>
-      <c r="AE30" s="33"/>
-      <c r="AF30" s="33"/>
-      <c r="AG30" s="35"/>
-      <c r="AH30" s="31"/>
-      <c r="AI30" s="32"/>
-      <c r="AJ30" s="32"/>
-      <c r="AK30" s="32"/>
-      <c r="AL30" s="33"/>
-      <c r="AM30" s="33"/>
-      <c r="AN30" s="32"/>
-      <c r="AO30" s="32"/>
-      <c r="AP30" s="34"/>
-      <c r="AQ30" s="32"/>
-      <c r="AR30" s="33"/>
-      <c r="AS30" s="33"/>
-      <c r="AT30" s="33"/>
-      <c r="AU30" s="36"/>
-      <c r="AV30" s="33"/>
-      <c r="AW30" s="32"/>
-      <c r="AX30" s="32"/>
-      <c r="AY30" s="32"/>
-      <c r="AZ30" s="35"/>
-      <c r="BA30" s="31"/>
-      <c r="BB30" s="32"/>
-      <c r="BC30" s="32"/>
-      <c r="BD30" s="32"/>
-      <c r="BE30" s="32"/>
-      <c r="BF30" s="32"/>
-      <c r="BG30" s="32"/>
-      <c r="BH30" s="32"/>
-      <c r="BI30" s="32"/>
-      <c r="BJ30" s="32"/>
-      <c r="BK30" s="32"/>
-      <c r="BL30" s="35"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="33"/>
+      <c r="AC30" s="32"/>
+      <c r="AD30" s="32"/>
+      <c r="AE30" s="32"/>
+      <c r="AF30" s="32"/>
+      <c r="AG30" s="34"/>
+      <c r="AH30" s="30"/>
+      <c r="AI30" s="31"/>
+      <c r="AJ30" s="31"/>
+      <c r="AK30" s="31"/>
+      <c r="AL30" s="32"/>
+      <c r="AM30" s="32"/>
+      <c r="AN30" s="31"/>
+      <c r="AO30" s="31"/>
+      <c r="AP30" s="33"/>
+      <c r="AQ30" s="31"/>
+      <c r="AR30" s="32"/>
+      <c r="AS30" s="32"/>
+      <c r="AT30" s="32"/>
+      <c r="AU30" s="35"/>
+      <c r="AV30" s="32"/>
+      <c r="AW30" s="31"/>
+      <c r="AX30" s="31"/>
+      <c r="AY30" s="31"/>
+      <c r="AZ30" s="34"/>
+      <c r="BA30" s="30"/>
+      <c r="BB30" s="31"/>
+      <c r="BC30" s="31"/>
+      <c r="BD30" s="31"/>
+      <c r="BE30" s="31"/>
+      <c r="BF30" s="31"/>
+      <c r="BG30" s="31"/>
+      <c r="BH30" s="31"/>
+      <c r="BI30" s="31"/>
+      <c r="BJ30" s="31"/>
+      <c r="BK30" s="31"/>
+      <c r="BL30" s="34"/>
     </row>
-    <row r="31" spans="1:64" ht="14.3" x14ac:dyDescent="0.25">
-      <c r="A31" s="58">
+    <row r="31" spans="1:64">
+      <c r="A31" s="81">
         <v>7</v>
       </c>
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="54">
+      <c r="C31" s="83">
         <v>7</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -5776,7 +5745,7 @@
       </c>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
-      <c r="AG31" s="25"/>
+      <c r="AG31" s="24"/>
       <c r="AH31" s="5" t="s">
         <v>40</v>
       </c>
@@ -5821,7 +5790,7 @@
         <v>40</v>
       </c>
       <c r="AY31" s="6"/>
-      <c r="AZ31" s="25"/>
+      <c r="AZ31" s="24"/>
       <c r="BA31" s="5"/>
       <c r="BB31" s="6"/>
       <c r="BC31" s="6"/>
@@ -5835,14 +5804,14 @@
         <v>40</v>
       </c>
       <c r="BK31" s="6"/>
-      <c r="BL31" s="25"/>
+      <c r="BL31" s="24"/>
     </row>
-    <row r="32" spans="1:64" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="59"/>
-      <c r="B32" s="48" t="s">
+    <row r="32" spans="1:64" ht="14.4" thickBot="1">
+      <c r="A32" s="82"/>
+      <c r="B32" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="55"/>
+      <c r="C32" s="84"/>
       <c r="D32" s="8" t="s">
         <v>7</v>
       </c>
@@ -5874,7 +5843,7 @@
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
-      <c r="AG32" s="26"/>
+      <c r="AG32" s="25"/>
       <c r="AH32" s="9"/>
       <c r="AI32" s="10"/>
       <c r="AJ32" s="10"/>
@@ -5893,7 +5862,7 @@
       <c r="AW32" s="10"/>
       <c r="AX32" s="10"/>
       <c r="AY32" s="10"/>
-      <c r="AZ32" s="26"/>
+      <c r="AZ32" s="25"/>
       <c r="BA32" s="9" t="s">
         <v>40</v>
       </c>
@@ -5915,82 +5884,82 @@
       </c>
       <c r="BJ32" s="10"/>
       <c r="BK32" s="10"/>
-      <c r="BL32" s="26"/>
+      <c r="BL32" s="25"/>
     </row>
-    <row r="33" spans="1:64" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
-      <c r="B33" s="49"/>
+    <row r="33" spans="1:64" ht="7.05" customHeight="1" thickBot="1">
+      <c r="A33" s="27"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="15"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="34"/>
-      <c r="AC33" s="33"/>
-      <c r="AD33" s="33"/>
-      <c r="AE33" s="33"/>
-      <c r="AF33" s="33"/>
-      <c r="AG33" s="35"/>
-      <c r="AH33" s="31"/>
-      <c r="AI33" s="32"/>
-      <c r="AJ33" s="32"/>
-      <c r="AK33" s="32"/>
-      <c r="AL33" s="33"/>
-      <c r="AM33" s="33"/>
-      <c r="AN33" s="32"/>
-      <c r="AO33" s="32"/>
-      <c r="AP33" s="34"/>
-      <c r="AQ33" s="32"/>
-      <c r="AR33" s="33"/>
-      <c r="AS33" s="33"/>
-      <c r="AT33" s="33"/>
-      <c r="AU33" s="36"/>
-      <c r="AV33" s="33"/>
-      <c r="AW33" s="32"/>
-      <c r="AX33" s="32"/>
-      <c r="AY33" s="32"/>
-      <c r="AZ33" s="35"/>
-      <c r="BA33" s="31"/>
-      <c r="BB33" s="32"/>
-      <c r="BC33" s="32"/>
-      <c r="BD33" s="32"/>
-      <c r="BE33" s="32"/>
-      <c r="BF33" s="32"/>
-      <c r="BG33" s="32"/>
-      <c r="BH33" s="32"/>
-      <c r="BI33" s="32"/>
-      <c r="BJ33" s="32"/>
-      <c r="BK33" s="32"/>
-      <c r="BL33" s="35"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="33"/>
+      <c r="AC33" s="32"/>
+      <c r="AD33" s="32"/>
+      <c r="AE33" s="32"/>
+      <c r="AF33" s="32"/>
+      <c r="AG33" s="34"/>
+      <c r="AH33" s="30"/>
+      <c r="AI33" s="31"/>
+      <c r="AJ33" s="31"/>
+      <c r="AK33" s="31"/>
+      <c r="AL33" s="32"/>
+      <c r="AM33" s="32"/>
+      <c r="AN33" s="31"/>
+      <c r="AO33" s="31"/>
+      <c r="AP33" s="33"/>
+      <c r="AQ33" s="31"/>
+      <c r="AR33" s="32"/>
+      <c r="AS33" s="32"/>
+      <c r="AT33" s="32"/>
+      <c r="AU33" s="35"/>
+      <c r="AV33" s="32"/>
+      <c r="AW33" s="31"/>
+      <c r="AX33" s="31"/>
+      <c r="AY33" s="31"/>
+      <c r="AZ33" s="34"/>
+      <c r="BA33" s="30"/>
+      <c r="BB33" s="31"/>
+      <c r="BC33" s="31"/>
+      <c r="BD33" s="31"/>
+      <c r="BE33" s="31"/>
+      <c r="BF33" s="31"/>
+      <c r="BG33" s="31"/>
+      <c r="BH33" s="31"/>
+      <c r="BI33" s="31"/>
+      <c r="BJ33" s="31"/>
+      <c r="BK33" s="31"/>
+      <c r="BL33" s="34"/>
     </row>
-    <row r="34" spans="1:64" ht="14.3" x14ac:dyDescent="0.25">
-      <c r="A34" s="58">
+    <row r="34" spans="1:64">
+      <c r="A34" s="81">
         <v>5</v>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="54">
+      <c r="C34" s="83">
         <v>5</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -6066,7 +6035,7 @@
       </c>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
-      <c r="AG34" s="25" t="s">
+      <c r="AG34" s="24" t="s">
         <v>40</v>
       </c>
       <c r="AH34" s="5" t="s">
@@ -6113,7 +6082,7 @@
         <v>40</v>
       </c>
       <c r="AY34" s="6"/>
-      <c r="AZ34" s="25" t="s">
+      <c r="AZ34" s="24" t="s">
         <v>40</v>
       </c>
       <c r="BA34" s="5" t="s">
@@ -6139,695 +6108,733 @@
         <v>40</v>
       </c>
       <c r="BK34" s="6"/>
-      <c r="BL34" s="25" t="s">
+      <c r="BL34" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:64" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
-      <c r="B35" s="48" t="s">
+    <row r="35" spans="1:64" ht="14.4" thickBot="1">
+      <c r="A35" s="82"/>
+      <c r="B35" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="55"/>
+      <c r="C35" s="84"/>
       <c r="D35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="22"/>
-      <c r="AB35" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="23"/>
-      <c r="AE35" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF35" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG35" s="27"/>
-      <c r="AH35" s="21"/>
-      <c r="AI35" s="22"/>
-      <c r="AJ35" s="22"/>
-      <c r="AK35" s="22"/>
-      <c r="AL35" s="23"/>
-      <c r="AM35" s="23"/>
-      <c r="AN35" s="22"/>
-      <c r="AO35" s="22"/>
-      <c r="AP35" s="22"/>
-      <c r="AQ35" s="22"/>
-      <c r="AR35" s="23"/>
-      <c r="AS35" s="23"/>
-      <c r="AT35" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU35" s="23"/>
-      <c r="AV35" s="23"/>
-      <c r="AW35" s="22"/>
-      <c r="AX35" s="22"/>
-      <c r="AY35" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="AZ35" s="27"/>
-      <c r="BA35" s="21"/>
-      <c r="BB35" s="22"/>
-      <c r="BC35" s="22"/>
-      <c r="BD35" s="22"/>
-      <c r="BE35" s="22"/>
-      <c r="BF35" s="22"/>
-      <c r="BG35" s="22"/>
-      <c r="BH35" s="22"/>
-      <c r="BI35" s="22"/>
-      <c r="BJ35" s="22"/>
-      <c r="BK35" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="BL35" s="27"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="21"/>
+      <c r="AB35" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC35" s="22"/>
+      <c r="AD35" s="22"/>
+      <c r="AE35" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF35" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="20"/>
+      <c r="AI35" s="21"/>
+      <c r="AJ35" s="21"/>
+      <c r="AK35" s="21"/>
+      <c r="AL35" s="22"/>
+      <c r="AM35" s="22"/>
+      <c r="AN35" s="21"/>
+      <c r="AO35" s="21"/>
+      <c r="AP35" s="21"/>
+      <c r="AQ35" s="21"/>
+      <c r="AR35" s="22"/>
+      <c r="AS35" s="22"/>
+      <c r="AT35" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU35" s="22"/>
+      <c r="AV35" s="22"/>
+      <c r="AW35" s="21"/>
+      <c r="AX35" s="21"/>
+      <c r="AY35" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ35" s="26"/>
+      <c r="BA35" s="20"/>
+      <c r="BB35" s="21"/>
+      <c r="BC35" s="21"/>
+      <c r="BD35" s="21"/>
+      <c r="BE35" s="21"/>
+      <c r="BF35" s="21"/>
+      <c r="BG35" s="21"/>
+      <c r="BH35" s="21"/>
+      <c r="BI35" s="21"/>
+      <c r="BJ35" s="21"/>
+      <c r="BK35" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="BL35" s="26"/>
     </row>
-    <row r="36" spans="1:64" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="19"/>
-      <c r="AA36" s="19"/>
-      <c r="AB36" s="19"/>
-      <c r="AC36" s="19"/>
-      <c r="AD36" s="19"/>
-      <c r="AE36" s="19"/>
-      <c r="AF36" s="19"/>
-      <c r="AG36" s="19"/>
-      <c r="AH36" s="19"/>
-      <c r="AI36" s="19"/>
-      <c r="AJ36" s="19"/>
-      <c r="AK36" s="19"/>
-      <c r="AL36" s="19"/>
-      <c r="AM36" s="19"/>
-      <c r="AN36" s="19"/>
-      <c r="AO36" s="19"/>
-      <c r="AP36" s="19"/>
-      <c r="AQ36" s="19"/>
-      <c r="AR36" s="19"/>
-      <c r="AS36" s="19"/>
-      <c r="AT36" s="19"/>
-      <c r="AU36" s="19"/>
-      <c r="AV36" s="19"/>
-      <c r="AW36" s="19"/>
-      <c r="AX36" s="19"/>
-      <c r="AY36" s="19"/>
-      <c r="AZ36" s="19"/>
-      <c r="BA36" s="19"/>
-      <c r="BB36" s="19"/>
-      <c r="BC36" s="19"/>
-      <c r="BD36" s="19"/>
-      <c r="BE36" s="19"/>
-      <c r="BF36" s="19"/>
-      <c r="BG36" s="19"/>
-      <c r="BH36" s="19"/>
-      <c r="BI36" s="19"/>
-      <c r="BJ36" s="19"/>
-      <c r="BK36" s="19"/>
-      <c r="BL36" s="24"/>
+    <row r="36" spans="1:64" ht="7.05" customHeight="1" thickBot="1">
+      <c r="A36" s="27"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="31"/>
+      <c r="AB36" s="33"/>
+      <c r="AC36" s="32"/>
+      <c r="AD36" s="32"/>
+      <c r="AE36" s="32"/>
+      <c r="AF36" s="32"/>
+      <c r="AG36" s="34"/>
+      <c r="AH36" s="30"/>
+      <c r="AI36" s="31"/>
+      <c r="AJ36" s="31"/>
+      <c r="AK36" s="31"/>
+      <c r="AL36" s="32"/>
+      <c r="AM36" s="32"/>
+      <c r="AN36" s="31"/>
+      <c r="AO36" s="31"/>
+      <c r="AP36" s="33"/>
+      <c r="AQ36" s="31"/>
+      <c r="AR36" s="32"/>
+      <c r="AS36" s="32"/>
+      <c r="AT36" s="32"/>
+      <c r="AU36" s="35"/>
+      <c r="AV36" s="32"/>
+      <c r="AW36" s="31"/>
+      <c r="AX36" s="31"/>
+      <c r="AY36" s="31"/>
+      <c r="AZ36" s="34"/>
+      <c r="BA36" s="30"/>
+      <c r="BB36" s="31"/>
+      <c r="BC36" s="31"/>
+      <c r="BD36" s="31"/>
+      <c r="BE36" s="31"/>
+      <c r="BF36" s="31"/>
+      <c r="BG36" s="31"/>
+      <c r="BH36" s="31"/>
+      <c r="BI36" s="31"/>
+      <c r="BJ36" s="31"/>
+      <c r="BK36" s="31"/>
+      <c r="BL36" s="34"/>
     </row>
-    <row r="37" spans="1:64" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="68" t="s">
+    <row r="37" spans="1:64">
+      <c r="A37" s="81">
+        <v>1</v>
+      </c>
+      <c r="B37" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="83">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S37" s="1"/>
+      <c r="T37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="U37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="X37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK37" s="6"/>
+      <c r="AL37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ37" s="6"/>
+      <c r="AR37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AY37" s="6"/>
+      <c r="AZ37" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB37" s="6"/>
+      <c r="BC37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="BD37" s="6"/>
+      <c r="BE37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF37" s="6"/>
+      <c r="BG37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="BH37" s="6"/>
+      <c r="BI37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="BJ37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="BK37" s="6"/>
+      <c r="BL37" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:64" ht="14.4" thickBot="1">
+      <c r="A38" s="82"/>
+      <c r="B38" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="84"/>
+      <c r="D38" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="22"/>
+      <c r="AE38" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF38" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG38" s="26"/>
+      <c r="AH38" s="20"/>
+      <c r="AI38" s="21"/>
+      <c r="AJ38" s="21"/>
+      <c r="AK38" s="21"/>
+      <c r="AL38" s="22"/>
+      <c r="AM38" s="22"/>
+      <c r="AN38" s="21"/>
+      <c r="AO38" s="21"/>
+      <c r="AP38" s="21"/>
+      <c r="AQ38" s="21"/>
+      <c r="AR38" s="22"/>
+      <c r="AS38" s="22"/>
+      <c r="AT38" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU38" s="22"/>
+      <c r="AV38" s="22"/>
+      <c r="AW38" s="21"/>
+      <c r="AX38" s="21"/>
+      <c r="AY38" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ38" s="26"/>
+      <c r="BA38" s="20"/>
+      <c r="BB38" s="21"/>
+      <c r="BC38" s="21"/>
+      <c r="BD38" s="21"/>
+      <c r="BE38" s="21"/>
+      <c r="BF38" s="21"/>
+      <c r="BG38" s="21"/>
+      <c r="BH38" s="21"/>
+      <c r="BI38" s="21"/>
+      <c r="BJ38" s="21"/>
+      <c r="BK38" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="BL38" s="26"/>
+    </row>
+    <row r="39" spans="1:64" ht="14.25" customHeight="1">
+      <c r="A39" s="94"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="19"/>
+      <c r="AE39" s="19"/>
+      <c r="AF39" s="19"/>
+      <c r="AG39" s="19"/>
+      <c r="AH39" s="19"/>
+      <c r="AI39" s="19"/>
+      <c r="AJ39" s="19"/>
+      <c r="AK39" s="19"/>
+      <c r="AL39" s="19"/>
+      <c r="AM39" s="19"/>
+      <c r="AN39" s="19"/>
+      <c r="AO39" s="19"/>
+      <c r="AP39" s="19"/>
+      <c r="AQ39" s="19"/>
+      <c r="AR39" s="19"/>
+      <c r="AS39" s="19"/>
+      <c r="AT39" s="19"/>
+      <c r="AU39" s="19"/>
+      <c r="AV39" s="19"/>
+      <c r="AW39" s="19"/>
+      <c r="AX39" s="19"/>
+      <c r="AY39" s="19"/>
+      <c r="AZ39" s="19"/>
+      <c r="BA39" s="19"/>
+      <c r="BB39" s="19"/>
+      <c r="BC39" s="19"/>
+      <c r="BD39" s="19"/>
+      <c r="BE39" s="19"/>
+      <c r="BF39" s="19"/>
+      <c r="BG39" s="19"/>
+      <c r="BH39" s="19"/>
+      <c r="BI39" s="19"/>
+      <c r="BJ39" s="19"/>
+      <c r="BK39" s="19"/>
+      <c r="BL39" s="23"/>
+    </row>
+    <row r="40" spans="1:64" ht="14.25" customHeight="1">
+      <c r="A40" s="97"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="69"/>
-      <c r="O37" s="69"/>
-      <c r="P37" s="69"/>
-      <c r="Q37" s="69"/>
-      <c r="R37" s="69"/>
-      <c r="S37" s="69"/>
-      <c r="T37" s="69"/>
-      <c r="U37" s="69"/>
-      <c r="V37" s="69"/>
-      <c r="W37" s="69"/>
-      <c r="X37" s="69"/>
-      <c r="Y37" s="69"/>
-      <c r="Z37" s="69"/>
-      <c r="AA37" s="69"/>
-      <c r="AB37" s="69"/>
-      <c r="AC37" s="69"/>
-      <c r="AD37" s="69"/>
-      <c r="AE37" s="69"/>
-      <c r="AF37" s="69"/>
-      <c r="AG37" s="69"/>
-      <c r="AH37" s="69"/>
-      <c r="AI37" s="69"/>
-      <c r="AJ37" s="69"/>
-      <c r="AK37" s="69"/>
-      <c r="AL37" s="69"/>
-      <c r="AM37" s="69"/>
-      <c r="AN37" s="69"/>
-      <c r="AO37" s="69"/>
-      <c r="AP37" s="69"/>
-      <c r="AQ37" s="69"/>
-      <c r="AR37" s="69"/>
-      <c r="AS37" s="69"/>
-      <c r="AT37" s="69"/>
-      <c r="AU37" s="69"/>
-      <c r="AV37" s="69"/>
-      <c r="AW37" s="69"/>
-      <c r="AX37" s="69"/>
-      <c r="AY37" s="69"/>
-      <c r="AZ37" s="69"/>
-      <c r="BA37" s="69"/>
-      <c r="BB37" s="69"/>
-      <c r="BC37" s="69"/>
-      <c r="BD37" s="69"/>
-      <c r="BE37" s="69"/>
-      <c r="BF37" s="69"/>
-      <c r="BG37" s="69"/>
-      <c r="BH37" s="69"/>
-      <c r="BI37" s="69"/>
-      <c r="BJ37" s="69"/>
-      <c r="BK37" s="69"/>
-      <c r="BL37" s="70"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="79"/>
+      <c r="M40" s="79"/>
+      <c r="N40" s="79"/>
+      <c r="O40" s="79"/>
+      <c r="P40" s="79"/>
+      <c r="Q40" s="79"/>
+      <c r="R40" s="79"/>
+      <c r="S40" s="79"/>
+      <c r="T40" s="79"/>
+      <c r="U40" s="79"/>
+      <c r="V40" s="79"/>
+      <c r="W40" s="79"/>
+      <c r="X40" s="79"/>
+      <c r="Y40" s="79"/>
+      <c r="Z40" s="79"/>
+      <c r="AA40" s="79"/>
+      <c r="AB40" s="79"/>
+      <c r="AC40" s="79"/>
+      <c r="AD40" s="79"/>
+      <c r="AE40" s="79"/>
+      <c r="AF40" s="79"/>
+      <c r="AG40" s="79"/>
+      <c r="AH40" s="79"/>
+      <c r="AI40" s="79"/>
+      <c r="AJ40" s="79"/>
+      <c r="AK40" s="79"/>
+      <c r="AL40" s="79"/>
+      <c r="AM40" s="79"/>
+      <c r="AN40" s="79"/>
+      <c r="AO40" s="79"/>
+      <c r="AP40" s="79"/>
+      <c r="AQ40" s="79"/>
+      <c r="AR40" s="79"/>
+      <c r="AS40" s="79"/>
+      <c r="AT40" s="79"/>
+      <c r="AU40" s="79"/>
+      <c r="AV40" s="79"/>
+      <c r="AW40" s="79"/>
+      <c r="AX40" s="79"/>
+      <c r="AY40" s="79"/>
+      <c r="AZ40" s="79"/>
+      <c r="BA40" s="79"/>
+      <c r="BB40" s="79"/>
+      <c r="BC40" s="79"/>
+      <c r="BD40" s="79"/>
+      <c r="BE40" s="79"/>
+      <c r="BF40" s="79"/>
+      <c r="BG40" s="79"/>
+      <c r="BH40" s="79"/>
+      <c r="BI40" s="79"/>
+      <c r="BJ40" s="79"/>
+      <c r="BK40" s="79"/>
+      <c r="BL40" s="80"/>
     </row>
-    <row r="38" spans="1:64" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="59"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="17"/>
-      <c r="AA38" s="17"/>
-      <c r="AB38" s="17"/>
-      <c r="AC38" s="17"/>
-      <c r="AD38" s="17"/>
-      <c r="AE38" s="17"/>
-      <c r="AF38" s="17"/>
-      <c r="AG38" s="17"/>
-      <c r="AH38" s="17"/>
-      <c r="AI38" s="17"/>
-      <c r="AJ38" s="17"/>
-      <c r="AK38" s="17"/>
-      <c r="AL38" s="17"/>
-      <c r="AM38" s="17"/>
-      <c r="AN38" s="17"/>
-      <c r="AO38" s="17"/>
-      <c r="AP38" s="17"/>
-      <c r="AQ38" s="17"/>
-      <c r="AR38" s="17"/>
-      <c r="AS38" s="17"/>
-      <c r="AT38" s="17"/>
-      <c r="AU38" s="17"/>
-      <c r="AV38" s="17"/>
-      <c r="AW38" s="17"/>
-      <c r="AX38" s="17"/>
-      <c r="AY38" s="17"/>
-      <c r="AZ38" s="17"/>
-      <c r="BA38" s="17"/>
-      <c r="BB38" s="17"/>
-      <c r="BC38" s="17"/>
-      <c r="BD38" s="17"/>
-      <c r="BE38" s="17"/>
-      <c r="BF38" s="17"/>
-      <c r="BG38" s="17"/>
-      <c r="BH38" s="17"/>
-      <c r="BI38" s="17"/>
-      <c r="BJ38" s="17"/>
-      <c r="BK38" s="17"/>
-      <c r="BL38" s="18"/>
+    <row r="41" spans="1:64" ht="15" customHeight="1" thickBot="1">
+      <c r="A41" s="100"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="17"/>
+      <c r="AB41" s="17"/>
+      <c r="AC41" s="17"/>
+      <c r="AD41" s="17"/>
+      <c r="AE41" s="17"/>
+      <c r="AF41" s="17"/>
+      <c r="AG41" s="17"/>
+      <c r="AH41" s="17"/>
+      <c r="AI41" s="17"/>
+      <c r="AJ41" s="17"/>
+      <c r="AK41" s="17"/>
+      <c r="AL41" s="17"/>
+      <c r="AM41" s="17"/>
+      <c r="AN41" s="17"/>
+      <c r="AO41" s="17"/>
+      <c r="AP41" s="17"/>
+      <c r="AQ41" s="17"/>
+      <c r="AR41" s="17"/>
+      <c r="AS41" s="17"/>
+      <c r="AT41" s="17"/>
+      <c r="AU41" s="17"/>
+      <c r="AV41" s="17"/>
+      <c r="AW41" s="17"/>
+      <c r="AX41" s="17"/>
+      <c r="AY41" s="17"/>
+      <c r="AZ41" s="17"/>
+      <c r="BA41" s="17"/>
+      <c r="BB41" s="17"/>
+      <c r="BC41" s="17"/>
+      <c r="BD41" s="17"/>
+      <c r="BE41" s="17"/>
+      <c r="BF41" s="17"/>
+      <c r="BG41" s="17"/>
+      <c r="BH41" s="17"/>
+      <c r="BI41" s="17"/>
+      <c r="BJ41" s="17"/>
+      <c r="BK41" s="17"/>
+      <c r="BL41" s="18"/>
     </row>
-    <row r="39" spans="1:64" ht="14.3" x14ac:dyDescent="0.25">
-      <c r="A39" s="58">
+    <row r="42" spans="1:64">
+      <c r="A42" s="81">
         <v>3</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="B42" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="54">
+      <c r="C42" s="83">
         <v>3</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13"/>
-      <c r="AA39" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB39" s="13"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="13"/>
-      <c r="AF39" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG39" s="13"/>
-      <c r="AH39" s="13"/>
-      <c r="AI39" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ39" s="13"/>
-      <c r="AK39" s="13"/>
-      <c r="AL39" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM39" s="13"/>
-      <c r="AN39" s="13"/>
-      <c r="AO39" s="13"/>
-      <c r="AP39" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ39" s="13"/>
-      <c r="AR39" s="13"/>
-      <c r="AS39" s="13"/>
-      <c r="AT39" s="13"/>
-      <c r="AU39" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AV39" s="13"/>
-      <c r="AW39" s="13"/>
-      <c r="AX39" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AY39" s="13"/>
-      <c r="AZ39" s="13"/>
-      <c r="BA39" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="BB39" s="13"/>
-      <c r="BC39" s="13"/>
-      <c r="BD39" s="13"/>
-      <c r="BE39" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="BF39" s="13"/>
-      <c r="BG39" s="13"/>
-      <c r="BH39" s="13"/>
-      <c r="BI39" s="13"/>
-      <c r="BJ39" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="BK39" s="13"/>
-      <c r="BL39" s="14"/>
-    </row>
-    <row r="40" spans="1:64" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="59"/>
-      <c r="B40" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-      <c r="AB40" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC40" s="10"/>
-      <c r="AD40" s="10"/>
-      <c r="AE40" s="10"/>
-      <c r="AF40" s="10"/>
-      <c r="AG40" s="10"/>
-      <c r="AH40" s="10"/>
-      <c r="AI40" s="10"/>
-      <c r="AJ40" s="10"/>
-      <c r="AK40" s="10"/>
-      <c r="AL40" s="10"/>
-      <c r="AM40" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN40" s="10"/>
-      <c r="AO40" s="10"/>
-      <c r="AP40" s="10"/>
-      <c r="AQ40" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR40" s="10"/>
-      <c r="AS40" s="10"/>
-      <c r="AT40" s="10"/>
-      <c r="AU40" s="10"/>
-      <c r="AV40" s="10"/>
-      <c r="AW40" s="10"/>
-      <c r="AX40" s="10"/>
-      <c r="AY40" s="10"/>
-      <c r="AZ40" s="10"/>
-      <c r="BA40" s="10"/>
-      <c r="BB40" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="BC40" s="10"/>
-      <c r="BD40" s="10"/>
-      <c r="BE40" s="10"/>
-      <c r="BF40" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="BG40" s="10"/>
-      <c r="BH40" s="10"/>
-      <c r="BI40" s="10"/>
-      <c r="BJ40" s="10"/>
-      <c r="BK40" s="10"/>
-      <c r="BL40" s="11"/>
-    </row>
-    <row r="41" spans="1:64" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="32"/>
-      <c r="U41" s="32"/>
-      <c r="V41" s="32"/>
-      <c r="W41" s="32"/>
-      <c r="X41" s="32"/>
-      <c r="Y41" s="32"/>
-      <c r="Z41" s="32"/>
-      <c r="AA41" s="32"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="33"/>
-      <c r="AD41" s="33"/>
-      <c r="AE41" s="33"/>
-      <c r="AF41" s="33"/>
-      <c r="AG41" s="35"/>
-      <c r="AH41" s="31"/>
-      <c r="AI41" s="32"/>
-      <c r="AJ41" s="32"/>
-      <c r="AK41" s="32"/>
-      <c r="AL41" s="33"/>
-      <c r="AM41" s="33"/>
-      <c r="AN41" s="32"/>
-      <c r="AO41" s="32"/>
-      <c r="AP41" s="34"/>
-      <c r="AQ41" s="32"/>
-      <c r="AR41" s="33"/>
-      <c r="AS41" s="33"/>
-      <c r="AT41" s="33"/>
-      <c r="AU41" s="36"/>
-      <c r="AV41" s="33"/>
-      <c r="AW41" s="32"/>
-      <c r="AX41" s="32"/>
-      <c r="AY41" s="32"/>
-      <c r="AZ41" s="35"/>
-      <c r="BA41" s="31"/>
-      <c r="BB41" s="32"/>
-      <c r="BC41" s="32"/>
-      <c r="BD41" s="32"/>
-      <c r="BE41" s="32"/>
-      <c r="BF41" s="32"/>
-      <c r="BG41" s="32"/>
-      <c r="BH41" s="32"/>
-      <c r="BI41" s="32"/>
-      <c r="BJ41" s="32"/>
-      <c r="BK41" s="32"/>
-      <c r="BL41" s="35"/>
-    </row>
-    <row r="42" spans="1:64" ht="14.3" x14ac:dyDescent="0.25">
-      <c r="A42" s="58">
-        <v>2</v>
-      </c>
-      <c r="B42" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="54">
-        <v>2</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="X42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
-      <c r="AB42" s="6"/>
-      <c r="AC42" s="6"/>
-      <c r="AD42" s="6"/>
-      <c r="AE42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH42" s="6"/>
-      <c r="AI42" s="6"/>
-      <c r="AJ42" s="6"/>
-      <c r="AK42" s="6"/>
-      <c r="AL42" s="6"/>
-      <c r="AM42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP42" s="6"/>
-      <c r="AQ42" s="6"/>
-      <c r="AR42" s="6"/>
-      <c r="AS42" s="6"/>
-      <c r="AT42" s="6"/>
-      <c r="AU42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AV42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AW42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AX42" s="6"/>
-      <c r="AY42" s="6"/>
-      <c r="AZ42" s="6"/>
-      <c r="BA42" s="6"/>
-      <c r="BB42" s="6"/>
-      <c r="BC42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="BD42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="BE42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="BF42" s="6"/>
-      <c r="BG42" s="6"/>
-      <c r="BH42" s="6"/>
-      <c r="BI42" s="6"/>
-      <c r="BJ42" s="6"/>
-      <c r="BK42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="BL42" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="E42" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
+      <c r="AA42" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB42" s="13"/>
+      <c r="AC42" s="13"/>
+      <c r="AD42" s="13"/>
+      <c r="AE42" s="13"/>
+      <c r="AF42" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG42" s="13"/>
+      <c r="AH42" s="13"/>
+      <c r="AI42" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ42" s="13"/>
+      <c r="AK42" s="13"/>
+      <c r="AL42" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM42" s="13"/>
+      <c r="AN42" s="13"/>
+      <c r="AO42" s="13"/>
+      <c r="AP42" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ42" s="13"/>
+      <c r="AR42" s="13"/>
+      <c r="AS42" s="13"/>
+      <c r="AT42" s="13"/>
+      <c r="AU42" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV42" s="13"/>
+      <c r="AW42" s="13"/>
+      <c r="AX42" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AY42" s="13"/>
+      <c r="AZ42" s="13"/>
+      <c r="BA42" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB42" s="13"/>
+      <c r="BC42" s="13"/>
+      <c r="BD42" s="13"/>
+      <c r="BE42" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF42" s="13"/>
+      <c r="BG42" s="13"/>
+      <c r="BH42" s="13"/>
+      <c r="BI42" s="13"/>
+      <c r="BJ42" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="BK42" s="13"/>
+      <c r="BL42" s="14"/>
     </row>
-    <row r="43" spans="1:64" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="59"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="55"/>
+    <row r="43" spans="1:64" ht="14.4" thickBot="1">
+      <c r="A43" s="82"/>
+      <c r="B43" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="84"/>
       <c r="D43" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="E43" s="9"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
+      <c r="I43" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="J43" s="10"/>
-      <c r="K43" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L43" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
       <c r="M43" s="10" t="s">
         <v>40</v>
       </c>
@@ -6836,252 +6843,266 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
-      <c r="S43" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="T43" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="U43" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
       <c r="V43" s="10"/>
       <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
+      <c r="X43" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="Y43" s="10"/>
       <c r="Z43" s="10"/>
-      <c r="AA43" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="AA43" s="10"/>
       <c r="AB43" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AC43" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="AC43" s="10"/>
       <c r="AD43" s="10"/>
       <c r="AE43" s="10"/>
       <c r="AF43" s="10"/>
       <c r="AG43" s="10"/>
       <c r="AH43" s="10"/>
-      <c r="AI43" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ43" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK43" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="AI43" s="10"/>
+      <c r="AJ43" s="10"/>
+      <c r="AK43" s="10"/>
       <c r="AL43" s="10"/>
-      <c r="AM43" s="10"/>
+      <c r="AM43" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="AN43" s="10"/>
       <c r="AO43" s="10"/>
       <c r="AP43" s="10"/>
       <c r="AQ43" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AR43" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AS43" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="AR43" s="10"/>
+      <c r="AS43" s="10"/>
       <c r="AT43" s="10"/>
       <c r="AU43" s="10"/>
       <c r="AV43" s="10"/>
       <c r="AW43" s="10"/>
       <c r="AX43" s="10"/>
-      <c r="AY43" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AZ43" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="BA43" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="BB43" s="10"/>
+      <c r="AY43" s="10"/>
+      <c r="AZ43" s="10"/>
+      <c r="BA43" s="10"/>
+      <c r="BB43" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="BC43" s="10"/>
       <c r="BD43" s="10"/>
       <c r="BE43" s="10"/>
-      <c r="BF43" s="10"/>
-      <c r="BG43" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="BH43" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="BI43" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="BF43" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG43" s="10"/>
+      <c r="BH43" s="10"/>
+      <c r="BI43" s="10"/>
       <c r="BJ43" s="10"/>
       <c r="BK43" s="10"/>
       <c r="BL43" s="11"/>
     </row>
-    <row r="44" spans="1:64" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="28"/>
-      <c r="B44" s="49"/>
+    <row r="44" spans="1:64" ht="7.05" customHeight="1" thickBot="1">
+      <c r="A44" s="27"/>
+      <c r="B44" s="48"/>
       <c r="C44" s="15"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="33"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="33"/>
-      <c r="S44" s="33"/>
-      <c r="T44" s="32"/>
-      <c r="U44" s="32"/>
-      <c r="V44" s="32"/>
-      <c r="W44" s="32"/>
-      <c r="X44" s="32"/>
-      <c r="Y44" s="32"/>
-      <c r="Z44" s="32"/>
-      <c r="AA44" s="32"/>
-      <c r="AB44" s="34"/>
-      <c r="AC44" s="33"/>
-      <c r="AD44" s="33"/>
-      <c r="AE44" s="33"/>
-      <c r="AF44" s="33"/>
-      <c r="AG44" s="35"/>
-      <c r="AH44" s="31"/>
-      <c r="AI44" s="32"/>
-      <c r="AJ44" s="32"/>
-      <c r="AK44" s="32"/>
-      <c r="AL44" s="33"/>
-      <c r="AM44" s="33"/>
-      <c r="AN44" s="32"/>
-      <c r="AO44" s="32"/>
-      <c r="AP44" s="34"/>
-      <c r="AQ44" s="32"/>
-      <c r="AR44" s="33"/>
-      <c r="AS44" s="33"/>
-      <c r="AT44" s="33"/>
-      <c r="AU44" s="36"/>
-      <c r="AV44" s="33"/>
-      <c r="AW44" s="32"/>
-      <c r="AX44" s="32"/>
-      <c r="AY44" s="32"/>
-      <c r="AZ44" s="35"/>
-      <c r="BA44" s="31"/>
-      <c r="BB44" s="32"/>
-      <c r="BC44" s="32"/>
-      <c r="BD44" s="32"/>
-      <c r="BE44" s="32"/>
-      <c r="BF44" s="32"/>
-      <c r="BG44" s="32"/>
-      <c r="BH44" s="32"/>
-      <c r="BI44" s="32"/>
-      <c r="BJ44" s="32"/>
-      <c r="BK44" s="32"/>
-      <c r="BL44" s="35"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="31"/>
+      <c r="U44" s="31"/>
+      <c r="V44" s="31"/>
+      <c r="W44" s="31"/>
+      <c r="X44" s="31"/>
+      <c r="Y44" s="31"/>
+      <c r="Z44" s="31"/>
+      <c r="AA44" s="31"/>
+      <c r="AB44" s="33"/>
+      <c r="AC44" s="32"/>
+      <c r="AD44" s="32"/>
+      <c r="AE44" s="32"/>
+      <c r="AF44" s="32"/>
+      <c r="AG44" s="34"/>
+      <c r="AH44" s="30"/>
+      <c r="AI44" s="31"/>
+      <c r="AJ44" s="31"/>
+      <c r="AK44" s="31"/>
+      <c r="AL44" s="32"/>
+      <c r="AM44" s="32"/>
+      <c r="AN44" s="31"/>
+      <c r="AO44" s="31"/>
+      <c r="AP44" s="33"/>
+      <c r="AQ44" s="31"/>
+      <c r="AR44" s="32"/>
+      <c r="AS44" s="32"/>
+      <c r="AT44" s="32"/>
+      <c r="AU44" s="35"/>
+      <c r="AV44" s="32"/>
+      <c r="AW44" s="31"/>
+      <c r="AX44" s="31"/>
+      <c r="AY44" s="31"/>
+      <c r="AZ44" s="34"/>
+      <c r="BA44" s="30"/>
+      <c r="BB44" s="31"/>
+      <c r="BC44" s="31"/>
+      <c r="BD44" s="31"/>
+      <c r="BE44" s="31"/>
+      <c r="BF44" s="31"/>
+      <c r="BG44" s="31"/>
+      <c r="BH44" s="31"/>
+      <c r="BI44" s="31"/>
+      <c r="BJ44" s="31"/>
+      <c r="BK44" s="31"/>
+      <c r="BL44" s="34"/>
     </row>
-    <row r="45" spans="1:64" ht="14.3" x14ac:dyDescent="0.25">
-      <c r="A45" s="58">
-        <v>1</v>
-      </c>
-      <c r="B45" s="47"/>
-      <c r="C45" s="54">
-        <v>1</v>
+    <row r="45" spans="1:64">
+      <c r="A45" s="81">
+        <v>2</v>
+      </c>
+      <c r="B45" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="83">
+        <v>2</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
+      <c r="G45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
+      <c r="O45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
+      <c r="W45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="X45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y45" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="Z45" s="6"/>
       <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
-      <c r="AE45" s="6"/>
-      <c r="AF45" s="6"/>
-      <c r="AG45" s="6"/>
+      <c r="AE45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG45" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="AH45" s="6"/>
       <c r="AI45" s="6"/>
       <c r="AJ45" s="6"/>
       <c r="AK45" s="6"/>
       <c r="AL45" s="6"/>
-      <c r="AM45" s="6"/>
-      <c r="AN45" s="6"/>
-      <c r="AO45" s="6"/>
+      <c r="AM45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO45" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="AP45" s="6"/>
       <c r="AQ45" s="6"/>
       <c r="AR45" s="6"/>
       <c r="AS45" s="6"/>
       <c r="AT45" s="6"/>
-      <c r="AU45" s="6"/>
-      <c r="AV45" s="6"/>
-      <c r="AW45" s="6"/>
+      <c r="AU45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AW45" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="AX45" s="6"/>
       <c r="AY45" s="6"/>
       <c r="AZ45" s="6"/>
       <c r="BA45" s="6"/>
       <c r="BB45" s="6"/>
-      <c r="BC45" s="6"/>
-      <c r="BD45" s="6"/>
-      <c r="BE45" s="6"/>
+      <c r="BC45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="BD45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="BE45" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="BF45" s="6"/>
       <c r="BG45" s="6"/>
       <c r="BH45" s="6"/>
       <c r="BI45" s="6"/>
       <c r="BJ45" s="6"/>
-      <c r="BK45" s="6"/>
-      <c r="BL45" s="7"/>
+      <c r="BK45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="BL45" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="46" spans="1:64" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="59"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="55"/>
+    <row r="46" spans="1:64" ht="14.4" thickBot="1">
+      <c r="A46" s="82"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="84"/>
       <c r="D46" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
       <c r="K46" s="10" t="s">
         <v>40</v>
       </c>
@@ -7091,21 +7112,11 @@
       <c r="M46" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="O46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="R46" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
       <c r="S46" s="10" t="s">
         <v>40</v>
       </c>
@@ -7115,21 +7126,11 @@
       <c r="U46" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="V46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="W46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="X46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z46" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
       <c r="AA46" s="10" t="s">
         <v>40</v>
       </c>
@@ -7139,21 +7140,11 @@
       <c r="AC46" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AD46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH46" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="10"/>
+      <c r="AG46" s="10"/>
+      <c r="AH46" s="10"/>
       <c r="AI46" s="10" t="s">
         <v>40</v>
       </c>
@@ -7163,21 +7154,11 @@
       <c r="AK46" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AL46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP46" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="AL46" s="10"/>
+      <c r="AM46" s="10"/>
+      <c r="AN46" s="10"/>
+      <c r="AO46" s="10"/>
+      <c r="AP46" s="10"/>
       <c r="AQ46" s="10" t="s">
         <v>40</v>
       </c>
@@ -7187,21 +7168,11 @@
       <c r="AS46" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AT46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AV46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AW46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AX46" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="AT46" s="10"/>
+      <c r="AU46" s="10"/>
+      <c r="AV46" s="10"/>
+      <c r="AW46" s="10"/>
+      <c r="AX46" s="10"/>
       <c r="AY46" s="10" t="s">
         <v>40</v>
       </c>
@@ -7211,21 +7182,11 @@
       <c r="BA46" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="BB46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="BC46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="BD46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="BE46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="BF46" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="BB46" s="10"/>
+      <c r="BC46" s="10"/>
+      <c r="BD46" s="10"/>
+      <c r="BE46" s="10"/>
+      <c r="BF46" s="10"/>
       <c r="BG46" s="10" t="s">
         <v>40</v>
       </c>
@@ -7235,26 +7196,33 @@
       <c r="BI46" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="BJ46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="BK46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="BL46" s="11" t="s">
-        <v>40</v>
-      </c>
+      <c r="BJ46" s="10"/>
+      <c r="BK46" s="10"/>
+      <c r="BL46" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E37:BL37"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C19:C20"/>
     <mergeCell ref="AH1:AZ1"/>
     <mergeCell ref="BA1:BL1"/>
-    <mergeCell ref="A39:A40"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A1:A2"/>
@@ -7268,32 +7236,19 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E40:BL40"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:BL5 E38:BL38 E7:BL8 E10:BL11 E13:BL14 E16:BL17 E19:BL20 E22:BL23 E25:BL26 E31:BL32 E28:BL29 E34:BL35">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="notEqual">
+  <conditionalFormatting sqref="E4:BL5 E41:BL41 E7:BL8 E10:BL11 E13:BL14 E16:BL17 E19:BL20 E22:BL23 E25:BL26 E31:BL32 E28:BL29 E34:BL35 E37:BL38">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39:BL40 E42:BL43 E45:BL46">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="notEqual">
+  <conditionalFormatting sqref="E42:BL43 E45:BL46">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7305,1029 +7260,1029 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="F3" sqref="F3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="82"/>
-    <col min="2" max="2" width="4.625" style="82" customWidth="1"/>
-    <col min="3" max="14" width="9" style="82"/>
-    <col min="15" max="15" width="4.625" style="82" customWidth="1"/>
-    <col min="16" max="16" width="75.5" style="82" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="82"/>
+    <col min="1" max="1" width="9" style="61"/>
+    <col min="2" max="2" width="4.6640625" style="61" customWidth="1"/>
+    <col min="3" max="14" width="9" style="61"/>
+    <col min="15" max="15" width="4.6640625" style="61" customWidth="1"/>
+    <col min="16" max="16" width="75.44140625" style="61" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="40.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:16" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A1" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
     </row>
-    <row r="2" spans="1:16" ht="40.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:16" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="77" t="s">
+      <c r="J2" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="77" t="s">
+      <c r="K2" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="77" t="s">
+      <c r="L2" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="78" t="s">
+      <c r="M2" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="80" t="s">
+      <c r="N2" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="O2" s="79" t="s">
+      <c r="O2" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="P2" s="80" t="s">
+      <c r="P2" s="59" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="49">
         <v>1</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="37" t="s">
+      <c r="F3" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="37" t="s">
+      <c r="K3" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="84" t="s">
+      <c r="M3" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="52" t="s">
+      <c r="N3" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="O3" s="52">
+      <c r="O3" s="51">
         <f>Table1[[#This Row],[STEP]]</f>
         <v>1</v>
       </c>
-      <c r="P3" s="85" t="s">
+      <c r="P3" s="64" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87">
+    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="65"/>
+      <c r="B4" s="66">
         <v>2</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="76" t="s">
+      <c r="F4" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="76" t="s">
+      <c r="J4" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="76" t="s">
+      <c r="K4" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="89" t="s">
+      <c r="M4" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="O4" s="90">
+      <c r="O4" s="69">
         <f>Table1[[#This Row],[STEP]]</f>
         <v>2</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="70" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
-      <c r="B5" s="87">
+    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="65"/>
+      <c r="B5" s="66">
         <v>3</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="76" t="s">
+      <c r="F5" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="76" t="s">
+      <c r="K5" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="89" t="s">
+      <c r="M5" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="90" t="s">
+      <c r="N5" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="O5" s="90">
+      <c r="O5" s="69">
         <f>Table1[[#This Row],[STEP]]</f>
         <v>3</v>
       </c>
-      <c r="P5" s="91" t="s">
+      <c r="P5" s="70" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
-      <c r="B6" s="87">
+    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="65"/>
+      <c r="B6" s="66">
         <v>4</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="76" t="s">
+      <c r="E6" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="76" t="s">
+      <c r="G6" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="76" t="s">
+      <c r="H6" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90">
+      <c r="J6" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69">
         <f>Table1[[#This Row],[STEP]]</f>
         <v>4</v>
       </c>
-      <c r="P6" s="91" t="s">
+      <c r="P6" s="70" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="87">
+      <c r="B7" s="66">
         <v>5</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="76" t="s">
+      <c r="E7" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="76" t="s">
+      <c r="G7" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="76" t="s">
+      <c r="I7" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="76" t="s">
+      <c r="K7" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="M7" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="N7" s="90" t="s">
+      <c r="N7" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="O7" s="90">
+      <c r="O7" s="69">
         <f>Table1[[#This Row],[STEP]]</f>
         <v>5</v>
       </c>
-      <c r="P7" s="91" t="s">
+      <c r="P7" s="70" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
-      <c r="B8" s="87">
+    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="65"/>
+      <c r="B8" s="66">
         <v>6</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="76" t="s">
+      <c r="E8" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="76" t="s">
+      <c r="G8" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="76" t="s">
+      <c r="K8" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="89" t="s">
+      <c r="M8" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="90" t="s">
+      <c r="N8" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="O8" s="90">
+      <c r="O8" s="69">
         <f>Table1[[#This Row],[STEP]]</f>
         <v>6</v>
       </c>
-      <c r="P8" s="91" t="s">
+      <c r="P8" s="70" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="86" t="s">
+    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="87">
+      <c r="B9" s="66">
         <v>7</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="76" t="s">
+      <c r="E9" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="76" t="s">
+      <c r="G9" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="76" t="s">
+      <c r="K9" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="M9" s="89" t="s">
+      <c r="M9" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="N9" s="90" t="s">
+      <c r="N9" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="O9" s="90">
+      <c r="O9" s="69">
         <f>Table1[[#This Row],[STEP]]</f>
         <v>7</v>
       </c>
-      <c r="P9" s="91" t="s">
+      <c r="P9" s="70" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
-      <c r="B10" s="87">
+    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="65"/>
+      <c r="B10" s="66">
         <v>8</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="76" t="s">
+      <c r="E10" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="76" t="s">
+      <c r="G10" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="76" t="s">
+      <c r="J10" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="76" t="s">
+      <c r="K10" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="M10" s="89" t="s">
+      <c r="M10" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="N10" s="90" t="s">
+      <c r="N10" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="O10" s="90">
+      <c r="O10" s="69">
         <f>Table1[[#This Row],[STEP]]</f>
         <v>8</v>
       </c>
-      <c r="P10" s="91" t="s">
+      <c r="P10" s="70" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="92"/>
-      <c r="B11" s="87">
+    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="71"/>
+      <c r="B11" s="66">
         <v>9</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="76" t="s">
+      <c r="E11" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="76" t="s">
+      <c r="G11" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="76" t="s">
+      <c r="H11" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="76" t="s">
+      <c r="J11" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="76" t="s">
+      <c r="K11" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="M11" s="89" t="s">
+      <c r="M11" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="N11" s="90" t="s">
+      <c r="N11" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="O11" s="90">
+      <c r="O11" s="69">
         <f>Table1[[#This Row],[STEP]]</f>
         <v>9</v>
       </c>
-      <c r="P11" s="91" t="s">
+      <c r="P11" s="70" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
-      <c r="B12" s="87">
+    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="65"/>
+      <c r="B12" s="66">
         <v>10</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="76" t="s">
+      <c r="E12" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="76" t="s">
+      <c r="G12" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="76" t="s">
+      <c r="H12" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90">
+      <c r="J12" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69">
         <f>Table1[[#This Row],[STEP]]</f>
         <v>10</v>
       </c>
-      <c r="P12" s="91" t="s">
+      <c r="P12" s="70" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="86" t="s">
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="87">
+      <c r="B13" s="66">
         <v>11</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="76" t="s">
+      <c r="E13" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="76" t="s">
+      <c r="F13" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="76" t="s">
+      <c r="G13" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="76" t="s">
+      <c r="K13" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="M13" s="89" t="s">
+      <c r="M13" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="N13" s="90" t="s">
+      <c r="N13" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="O13" s="90">
+      <c r="O13" s="69">
         <f>Table1[[#This Row],[STEP]]</f>
         <v>11</v>
       </c>
-      <c r="P13" s="91" t="s">
+      <c r="P13" s="70" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
-      <c r="B14" s="87">
+    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="65"/>
+      <c r="B14" s="66">
         <v>12</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="76" t="s">
+      <c r="E14" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="76" t="s">
+      <c r="G14" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="76" t="s">
+      <c r="H14" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="76" t="s">
+      <c r="J14" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="M14" s="89" t="s">
+      <c r="M14" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="N14" s="90" t="s">
+      <c r="N14" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="O14" s="90">
+      <c r="O14" s="69">
         <f>Table1[[#This Row],[STEP]]</f>
         <v>12</v>
       </c>
-      <c r="P14" s="91" t="s">
+      <c r="P14" s="70" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
-      <c r="B15" s="87">
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="65"/>
+      <c r="B15" s="66">
         <v>13</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="76" t="s">
+      <c r="E15" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="76" t="s">
+      <c r="G15" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="76" t="s">
+      <c r="H15" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" s="76" t="s">
+      <c r="J15" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="L15" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="M15" s="89" t="s">
+      <c r="L15" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="N15" s="90" t="s">
+      <c r="N15" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="O15" s="90">
+      <c r="O15" s="69">
         <f>Table1[[#This Row],[STEP]]</f>
         <v>13</v>
       </c>
-      <c r="P15" s="91" t="s">
+      <c r="P15" s="70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="87">
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="71"/>
+      <c r="B16" s="66">
         <v>14</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="76" t="s">
+      <c r="E16" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="76" t="s">
+      <c r="F16" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="76" t="s">
+      <c r="G16" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="76" t="s">
+      <c r="K16" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="M16" s="89" t="s">
+      <c r="M16" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="N16" s="90" t="s">
+      <c r="N16" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="O16" s="90">
+      <c r="O16" s="69">
         <f>Table1[[#This Row],[STEP]]</f>
         <v>14</v>
       </c>
-      <c r="P16" s="91" t="s">
+      <c r="P16" s="70" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
-      <c r="B17" s="87">
+    <row r="17" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="65"/>
+      <c r="B17" s="66">
         <v>15</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="76" t="s">
+      <c r="E17" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="76" t="s">
+      <c r="G17" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="76" t="s">
+      <c r="H17" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90">
+      <c r="J17" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69">
         <f>Table1[[#This Row],[STEP]]</f>
         <v>15</v>
       </c>
-      <c r="P17" s="91" t="s">
+      <c r="P17" s="70" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="86" t="s">
+    <row r="18" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="87">
+      <c r="B18" s="66">
         <v>16</v>
       </c>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="76" t="s">
+      <c r="D18" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="76" t="s">
+      <c r="E18" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="76" t="s">
+      <c r="F18" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="76" t="s">
+      <c r="K18" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="M18" s="89" t="s">
+      <c r="M18" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="N18" s="90" t="s">
+      <c r="N18" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="O18" s="90">
+      <c r="O18" s="69">
         <f>Table1[[#This Row],[STEP]]</f>
         <v>16</v>
       </c>
-      <c r="P18" s="91" t="s">
+      <c r="P18" s="70" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
-      <c r="B19" s="87">
+    <row r="19" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="65"/>
+      <c r="B19" s="66">
         <v>17</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="76" t="s">
+      <c r="D19" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="76" t="s">
+      <c r="E19" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" s="76" t="s">
+      <c r="G19" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="76" t="s">
+      <c r="J19" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="M19" s="89" t="s">
+      <c r="M19" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="N19" s="90" t="s">
+      <c r="N19" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="O19" s="90">
+      <c r="O19" s="69">
         <f>Table1[[#This Row],[STEP]]</f>
         <v>17</v>
       </c>
-      <c r="P19" s="91" t="s">
+      <c r="P19" s="70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
-      <c r="B20" s="87">
+    <row r="20" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="65"/>
+      <c r="B20" s="66">
         <v>18</v>
       </c>
-      <c r="C20" s="88" t="s">
+      <c r="C20" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="76" t="s">
+      <c r="D20" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="76" t="s">
+      <c r="E20" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="76" t="s">
+      <c r="G20" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" s="76" t="s">
+      <c r="H20" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20" s="76" t="s">
+      <c r="J20" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="L20" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="M20" s="89" t="s">
+      <c r="L20" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="N20" s="90" t="s">
+      <c r="N20" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="O20" s="90">
+      <c r="O20" s="69">
         <f>Table1[[#This Row],[STEP]]</f>
         <v>18</v>
       </c>
-      <c r="P20" s="91" t="s">
+      <c r="P20" s="70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="93" t="s">
+    <row r="21" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A21" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="94">
+      <c r="B21" s="73">
         <v>19</v>
       </c>
-      <c r="C21" s="95" t="s">
+      <c r="C21" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="39" t="s">
+      <c r="D21" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="39" t="s">
+      <c r="G21" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="M21" s="96" t="s">
+      <c r="K21" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="N21" s="97" t="s">
+      <c r="N21" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="O21" s="97">
+      <c r="O21" s="76">
         <f>Table1[[#This Row],[STEP]]</f>
         <v>19</v>
       </c>
-      <c r="P21" s="98" t="s">
+      <c r="P21" s="77" t="s">
         <v>82</v>
       </c>
     </row>
@@ -8336,7 +8291,7 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:O21">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",C3)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentation/CROUZET 6561 Sequences.xlsx
+++ b/Documentation/CROUZET 6561 Sequences.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CBH439\OneDrive - Suez Environnement\PRIVE\GITHUB\KostasWash\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11352"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23257" windowHeight="11357" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Chart" sheetId="1" r:id="rId1"/>
@@ -12,9 +17,8 @@
     <sheet name="Simulateur (corrigé)" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="83">
   <si>
     <t>PROGRAM</t>
   </si>
@@ -279,8 +283,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1899,25 +1903,49 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1938,37 +1966,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2020,7 +2024,7 @@
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2059,7 +2063,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2098,7 +2102,7 @@
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2137,7 +2141,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2176,7 +2180,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2211,7 +2215,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2250,7 +2254,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2285,7 +2289,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
@@ -2324,7 +2328,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2363,7 +2367,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2402,7 +2406,7 @@
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
@@ -2441,7 +2445,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
@@ -2484,7 +2488,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2524,7 +2528,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2564,7 +2568,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2608,7 +2612,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2652,7 +2656,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2690,7 +2694,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2728,7 +2732,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2768,7 +2772,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2806,7 +2810,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2846,7 +2850,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2884,7 +2888,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2924,7 +2928,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2962,7 +2966,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3002,7 +3006,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3040,7 +3044,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3080,7 +3084,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3118,7 +3122,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3158,7 +3162,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3196,7 +3200,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3236,7 +3240,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3274,7 +3278,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3314,7 +3318,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3352,7 +3356,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -3390,7 +3394,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -3428,7 +3432,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -3466,7 +3470,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -3516,7 +3520,7 @@
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -3547,7 +3551,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3628,7 +3632,7 @@
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3667,7 +3671,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3706,7 +3710,7 @@
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3745,7 +3749,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3784,7 +3788,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3819,7 +3823,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3858,7 +3862,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3893,7 +3897,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
@@ -3932,7 +3936,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3971,7 +3975,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4010,7 +4014,7 @@
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
@@ -4049,7 +4053,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
@@ -4092,7 +4096,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4132,7 +4136,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4172,7 +4176,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4216,7 +4220,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4260,7 +4264,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4298,7 +4302,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4336,7 +4340,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4376,7 +4380,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4414,7 +4418,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4454,7 +4458,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4492,7 +4496,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4532,7 +4536,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4570,7 +4574,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4610,7 +4614,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4648,7 +4652,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4688,7 +4692,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4726,7 +4730,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4766,7 +4770,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4804,7 +4808,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4844,7 +4848,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4882,7 +4886,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4922,7 +4926,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4960,7 +4964,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -4998,7 +5002,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -5036,7 +5040,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -5074,7 +5078,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -5124,7 +5128,7 @@
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -5155,7 +5159,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5863,13 +5867,13 @@
     <tableColumn id="24" name="DOOR LOCK" dataDxfId="55">
       <calculatedColumnFormula>IF(Table13[[#This Row],[18T]]&lt;&gt;"","ON","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="MT&#10;PROG" dataDxfId="54">
+    <tableColumn id="17" name="MT_x000a_PROG" dataDxfId="54">
       <calculatedColumnFormula>IF(Table13[[#This Row],[18T]]&lt;&gt;"",Table13[[#This Row],[BUS1]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="MP&#10;WASH" dataDxfId="53">
+    <tableColumn id="26" name="MP_x000a_WASH" dataDxfId="53">
       <calculatedColumnFormula>IF(Table13[[#This Row],[5T]]&lt;&gt;"",Table13[[#This Row],[BUS3]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="MC&#10;SPIN" dataDxfId="52">
+    <tableColumn id="27" name="MC_x000a_SPIN" dataDxfId="52">
       <calculatedColumnFormula>IF(Table13[[#This Row],[5B]]&lt;&gt;"",Table13[[#This Row],[BUS3]],"") &amp; IF(Table13[[#This Row],[13B]]&lt;&gt;"",Table13[[#This Row],[BUS2]],"") &amp; IF(Table13[[#This Row],[9B]]&lt;&gt;"",Table13[[#This Row],[BUS2]]&amp;"+S2","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" name="HEAT" dataDxfId="51">
@@ -5934,13 +5938,13 @@
     <tableColumn id="24" name="DOOR LOCK" dataDxfId="7">
       <calculatedColumnFormula>IF(Table132[[#This Row],[18T]]&lt;&gt;"","ON","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="MT&#10;PROG" dataDxfId="6">
+    <tableColumn id="17" name="MT_x000a_PROG" dataDxfId="6">
       <calculatedColumnFormula>IF(Table132[[#This Row],[18T]]&lt;&gt;"",Table132[[#This Row],[BUS1]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="MP&#10;WASH" dataDxfId="5">
+    <tableColumn id="26" name="MP_x000a_WASH" dataDxfId="5">
       <calculatedColumnFormula>IF(Table132[[#This Row],[5T]]&lt;&gt;"",Table132[[#This Row],[BUS3]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="MC&#10;SPIN" dataDxfId="4">
+    <tableColumn id="27" name="MC_x000a_SPIN" dataDxfId="4">
       <calculatedColumnFormula>IF(Table132[[#This Row],[5B]]&lt;&gt;"",Table132[[#This Row],[BUS3]],"") &amp; IF(Table132[[#This Row],[13B]]&lt;&gt;"",Table132[[#This Row],[BUS2]],"") &amp; IF(Table132[[#This Row],[9B]]&lt;&gt;"",Table132[[#This Row],[BUS2]]&amp;"+S2","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" name="HEAT" dataDxfId="3">
@@ -6249,112 +6253,112 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="BJ11" sqref="BJ11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="4.6640625" style="3" customWidth="1"/>
-    <col min="5" max="64" width="2.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="4.625" style="3" customWidth="1"/>
+    <col min="5" max="64" width="2.25" style="3" customWidth="1"/>
     <col min="65" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="29.25" customHeight="1">
-      <c r="A1" s="152" t="s">
+    <row r="1" spans="1:64" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="156" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="160" t="s">
+      <c r="C1" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="161"/>
-      <c r="E1" s="157" t="s">
+      <c r="D1" s="169"/>
+      <c r="E1" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
-      <c r="O1" s="158"/>
-      <c r="P1" s="158"/>
-      <c r="Q1" s="158"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="158"/>
-      <c r="T1" s="158"/>
-      <c r="U1" s="158"/>
-      <c r="V1" s="158"/>
-      <c r="W1" s="158"/>
-      <c r="X1" s="158"/>
-      <c r="Y1" s="158"/>
-      <c r="Z1" s="158"/>
-      <c r="AA1" s="158"/>
-      <c r="AB1" s="158"/>
-      <c r="AC1" s="158"/>
-      <c r="AD1" s="158"/>
-      <c r="AE1" s="158"/>
-      <c r="AF1" s="158"/>
-      <c r="AG1" s="159"/>
-      <c r="AH1" s="157" t="s">
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="166"/>
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="166"/>
+      <c r="T1" s="166"/>
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166"/>
+      <c r="X1" s="166"/>
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="166"/>
+      <c r="AA1" s="166"/>
+      <c r="AB1" s="166"/>
+      <c r="AC1" s="166"/>
+      <c r="AD1" s="166"/>
+      <c r="AE1" s="166"/>
+      <c r="AF1" s="166"/>
+      <c r="AG1" s="167"/>
+      <c r="AH1" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="158"/>
-      <c r="AJ1" s="158"/>
-      <c r="AK1" s="158"/>
-      <c r="AL1" s="158"/>
-      <c r="AM1" s="158"/>
-      <c r="AN1" s="158"/>
-      <c r="AO1" s="158"/>
-      <c r="AP1" s="158"/>
-      <c r="AQ1" s="158"/>
-      <c r="AR1" s="158"/>
-      <c r="AS1" s="158"/>
-      <c r="AT1" s="158"/>
-      <c r="AU1" s="158"/>
-      <c r="AV1" s="158"/>
-      <c r="AW1" s="158"/>
-      <c r="AX1" s="158"/>
-      <c r="AY1" s="158"/>
-      <c r="AZ1" s="159"/>
-      <c r="BA1" s="157" t="s">
+      <c r="AI1" s="166"/>
+      <c r="AJ1" s="166"/>
+      <c r="AK1" s="166"/>
+      <c r="AL1" s="166"/>
+      <c r="AM1" s="166"/>
+      <c r="AN1" s="166"/>
+      <c r="AO1" s="166"/>
+      <c r="AP1" s="166"/>
+      <c r="AQ1" s="166"/>
+      <c r="AR1" s="166"/>
+      <c r="AS1" s="166"/>
+      <c r="AT1" s="166"/>
+      <c r="AU1" s="166"/>
+      <c r="AV1" s="166"/>
+      <c r="AW1" s="166"/>
+      <c r="AX1" s="166"/>
+      <c r="AY1" s="166"/>
+      <c r="AZ1" s="167"/>
+      <c r="BA1" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="BB1" s="158"/>
-      <c r="BC1" s="158"/>
-      <c r="BD1" s="158"/>
-      <c r="BE1" s="158"/>
-      <c r="BF1" s="158"/>
-      <c r="BG1" s="158"/>
-      <c r="BH1" s="158"/>
-      <c r="BI1" s="158"/>
-      <c r="BJ1" s="158"/>
-      <c r="BK1" s="158"/>
-      <c r="BL1" s="159"/>
+      <c r="BB1" s="166"/>
+      <c r="BC1" s="166"/>
+      <c r="BD1" s="166"/>
+      <c r="BE1" s="166"/>
+      <c r="BF1" s="166"/>
+      <c r="BG1" s="166"/>
+      <c r="BH1" s="166"/>
+      <c r="BI1" s="166"/>
+      <c r="BJ1" s="166"/>
+      <c r="BK1" s="166"/>
+      <c r="BL1" s="167"/>
     </row>
-    <row r="2" spans="1:64" ht="57" thickBot="1">
-      <c r="A2" s="153"/>
+    <row r="2" spans="1:64" ht="59.1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="158"/>
       <c r="B2" s="38" t="s">
         <v>3</v>
       </c>
@@ -6455,7 +6459,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="15" customHeight="1" thickBot="1">
+    <row r="3" spans="1:64" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28"/>
       <c r="B3" s="29"/>
       <c r="C3" s="50"/>
@@ -6698,14 +6702,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:64" ht="14.25" customHeight="1">
-      <c r="A4" s="152">
+    <row r="4" spans="1:64" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="156">
         <v>19</v>
       </c>
       <c r="B4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="150">
+      <c r="C4" s="162">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -6866,12 +6870,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:64" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A5" s="153"/>
+    <row r="5" spans="1:64" ht="14.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="158"/>
       <c r="B5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="151"/>
+      <c r="C5" s="164"/>
       <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
@@ -6958,7 +6962,7 @@
       <c r="BK5" s="10"/>
       <c r="BL5" s="26"/>
     </row>
-    <row r="6" spans="1:64" ht="7.2" customHeight="1" thickBot="1">
+    <row r="6" spans="1:64" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="49"/>
       <c r="C6" s="15"/>
@@ -7024,14 +7028,14 @@
       <c r="BK6" s="32"/>
       <c r="BL6" s="35"/>
     </row>
-    <row r="7" spans="1:64">
-      <c r="A7" s="152">
+    <row r="7" spans="1:64" ht="14.3" x14ac:dyDescent="0.25">
+      <c r="A7" s="156">
         <v>18</v>
       </c>
       <c r="B7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="150">
+      <c r="C7" s="162">
         <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -7212,12 +7216,12 @@
       </c>
       <c r="BL7" s="25"/>
     </row>
-    <row r="8" spans="1:64" ht="14.4" thickBot="1">
-      <c r="A8" s="153"/>
+    <row r="8" spans="1:64" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="158"/>
       <c r="B8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="151"/>
+      <c r="C8" s="164"/>
       <c r="D8" s="8" t="s">
         <v>7</v>
       </c>
@@ -7282,7 +7286,7 @@
       <c r="BK8" s="10"/>
       <c r="BL8" s="26"/>
     </row>
-    <row r="9" spans="1:64" ht="7.2" customHeight="1" thickBot="1">
+    <row r="9" spans="1:64" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="49"/>
       <c r="C9" s="15"/>
@@ -7348,14 +7352,14 @@
       <c r="BK9" s="32"/>
       <c r="BL9" s="35"/>
     </row>
-    <row r="10" spans="1:64">
-      <c r="A10" s="152">
+    <row r="10" spans="1:64" ht="14.3" x14ac:dyDescent="0.25">
+      <c r="A10" s="156">
         <v>17</v>
       </c>
       <c r="B10" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="150">
+      <c r="C10" s="162">
         <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -7422,12 +7426,12 @@
       <c r="BK10" s="6"/>
       <c r="BL10" s="25"/>
     </row>
-    <row r="11" spans="1:64" ht="14.4" thickBot="1">
-      <c r="A11" s="153"/>
+    <row r="11" spans="1:64" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="158"/>
       <c r="B11" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="151"/>
+      <c r="C11" s="164"/>
       <c r="D11" s="8" t="s">
         <v>7</v>
       </c>
@@ -7528,25 +7532,23 @@
       <c r="BC11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="BD11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="BE11" s="10"/>
-      <c r="BF11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG11" s="10"/>
-      <c r="BH11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="BI11" s="10"/>
-      <c r="BJ11" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="BD11" s="10"/>
+      <c r="BE11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BF11" s="10"/>
+      <c r="BG11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BH11" s="10"/>
+      <c r="BI11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BJ11" s="10"/>
       <c r="BK11" s="10"/>
       <c r="BL11" s="26"/>
     </row>
-    <row r="12" spans="1:64" ht="7.2" customHeight="1" thickBot="1">
+    <row r="12" spans="1:64" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="49"/>
       <c r="C12" s="15"/>
@@ -7612,14 +7614,14 @@
       <c r="BK12" s="32"/>
       <c r="BL12" s="35"/>
     </row>
-    <row r="13" spans="1:64">
-      <c r="A13" s="152">
+    <row r="13" spans="1:64" ht="14.3" x14ac:dyDescent="0.25">
+      <c r="A13" s="156">
         <v>15</v>
       </c>
       <c r="B13" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="150">
+      <c r="C13" s="162">
         <v>15</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -7786,12 +7788,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:64" ht="14.4" thickBot="1">
-      <c r="A14" s="153"/>
+    <row r="14" spans="1:64" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="158"/>
       <c r="B14" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="151"/>
+      <c r="C14" s="164"/>
       <c r="D14" s="8" t="s">
         <v>7</v>
       </c>
@@ -7866,7 +7868,7 @@
       <c r="BK14" s="10"/>
       <c r="BL14" s="26"/>
     </row>
-    <row r="15" spans="1:64" ht="7.2" customHeight="1" thickBot="1">
+    <row r="15" spans="1:64" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" s="49"/>
       <c r="C15" s="15"/>
@@ -7932,14 +7934,14 @@
       <c r="BK15" s="32"/>
       <c r="BL15" s="35"/>
     </row>
-    <row r="16" spans="1:64">
-      <c r="A16" s="152">
+    <row r="16" spans="1:64" ht="14.3" x14ac:dyDescent="0.25">
+      <c r="A16" s="156">
         <v>14</v>
       </c>
       <c r="B16" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="150">
+      <c r="C16" s="162">
         <v>14</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -8048,12 +8050,12 @@
       </c>
       <c r="BL16" s="25"/>
     </row>
-    <row r="17" spans="1:64" ht="14.4" thickBot="1">
-      <c r="A17" s="153"/>
+    <row r="17" spans="1:64" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="158"/>
       <c r="B17" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="151"/>
+      <c r="C17" s="164"/>
       <c r="D17" s="8" t="s">
         <v>7</v>
       </c>
@@ -8134,7 +8136,7 @@
       <c r="BK17" s="10"/>
       <c r="BL17" s="26"/>
     </row>
-    <row r="18" spans="1:64" ht="7.2" customHeight="1" thickBot="1">
+    <row r="18" spans="1:64" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
       <c r="B18" s="49"/>
       <c r="C18" s="15"/>
@@ -8200,14 +8202,14 @@
       <c r="BK18" s="32"/>
       <c r="BL18" s="35"/>
     </row>
-    <row r="19" spans="1:64">
-      <c r="A19" s="152">
+    <row r="19" spans="1:64" ht="14.3" x14ac:dyDescent="0.25">
+      <c r="A19" s="156">
         <v>13</v>
       </c>
       <c r="B19" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="150">
+      <c r="C19" s="162">
         <v>13</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -8288,12 +8290,12 @@
       <c r="BK19" s="6"/>
       <c r="BL19" s="25"/>
     </row>
-    <row r="20" spans="1:64" ht="14.4" thickBot="1">
-      <c r="A20" s="153"/>
+    <row r="20" spans="1:64" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="158"/>
       <c r="B20" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="151"/>
+      <c r="C20" s="164"/>
       <c r="D20" s="8" t="s">
         <v>7</v>
       </c>
@@ -8360,7 +8362,7 @@
       <c r="BK20" s="10"/>
       <c r="BL20" s="26"/>
     </row>
-    <row r="21" spans="1:64" ht="7.2" customHeight="1" thickBot="1">
+    <row r="21" spans="1:64" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28"/>
       <c r="B21" s="49"/>
       <c r="C21" s="15"/>
@@ -8426,14 +8428,14 @@
       <c r="BK21" s="32"/>
       <c r="BL21" s="35"/>
     </row>
-    <row r="22" spans="1:64">
-      <c r="A22" s="152">
+    <row r="22" spans="1:64" ht="14.3" x14ac:dyDescent="0.25">
+      <c r="A22" s="156">
         <v>11</v>
       </c>
       <c r="B22" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="150">
+      <c r="C22" s="162">
         <v>11</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -8546,12 +8548,12 @@
       </c>
       <c r="BL22" s="25"/>
     </row>
-    <row r="23" spans="1:64" ht="14.4" thickBot="1">
-      <c r="A23" s="153"/>
+    <row r="23" spans="1:64" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="158"/>
       <c r="B23" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="151"/>
+      <c r="C23" s="164"/>
       <c r="D23" s="8" t="s">
         <v>7</v>
       </c>
@@ -8636,7 +8638,7 @@
       <c r="BK23" s="10"/>
       <c r="BL23" s="26"/>
     </row>
-    <row r="24" spans="1:64" ht="7.2" customHeight="1" thickBot="1">
+    <row r="24" spans="1:64" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28"/>
       <c r="B24" s="49"/>
       <c r="C24" s="15"/>
@@ -8702,14 +8704,14 @@
       <c r="BK24" s="32"/>
       <c r="BL24" s="35"/>
     </row>
-    <row r="25" spans="1:64">
-      <c r="A25" s="152">
+    <row r="25" spans="1:64" ht="14.3" x14ac:dyDescent="0.25">
+      <c r="A25" s="156">
         <v>10</v>
       </c>
       <c r="B25" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="162">
         <v>10</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -8800,12 +8802,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:64" ht="14.4" thickBot="1">
-      <c r="A26" s="153"/>
+    <row r="26" spans="1:64" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="158"/>
       <c r="B26" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="151"/>
+      <c r="C26" s="164"/>
       <c r="D26" s="8" t="s">
         <v>7</v>
       </c>
@@ -8900,7 +8902,7 @@
       <c r="BK26" s="10"/>
       <c r="BL26" s="26"/>
     </row>
-    <row r="27" spans="1:64" ht="7.2" customHeight="1" thickBot="1">
+    <row r="27" spans="1:64" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28"/>
       <c r="B27" s="49"/>
       <c r="C27" s="15"/>
@@ -8966,14 +8968,14 @@
       <c r="BK27" s="32"/>
       <c r="BL27" s="35"/>
     </row>
-    <row r="28" spans="1:64">
-      <c r="A28" s="152">
+    <row r="28" spans="1:64" ht="14.3" x14ac:dyDescent="0.25">
+      <c r="A28" s="156">
         <v>9</v>
       </c>
       <c r="B28" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="150">
+      <c r="C28" s="162">
         <v>9</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -9042,12 +9044,12 @@
       <c r="BK28" s="6"/>
       <c r="BL28" s="25"/>
     </row>
-    <row r="29" spans="1:64" ht="14.4" thickBot="1">
-      <c r="A29" s="153"/>
+    <row r="29" spans="1:64" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="158"/>
       <c r="B29" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="151"/>
+      <c r="C29" s="164"/>
       <c r="D29" s="8" t="s">
         <v>7</v>
       </c>
@@ -9126,7 +9128,7 @@
       </c>
       <c r="BL29" s="26"/>
     </row>
-    <row r="30" spans="1:64" ht="7.2" customHeight="1" thickBot="1">
+    <row r="30" spans="1:64" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
       <c r="B30" s="49"/>
       <c r="C30" s="15"/>
@@ -9192,14 +9194,14 @@
       <c r="BK30" s="32"/>
       <c r="BL30" s="35"/>
     </row>
-    <row r="31" spans="1:64">
-      <c r="A31" s="152">
+    <row r="31" spans="1:64" ht="14.3" x14ac:dyDescent="0.25">
+      <c r="A31" s="156">
         <v>7</v>
       </c>
       <c r="B31" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="150">
+      <c r="C31" s="162">
         <v>7</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -9336,12 +9338,12 @@
       <c r="BK31" s="6"/>
       <c r="BL31" s="25"/>
     </row>
-    <row r="32" spans="1:64" ht="14.4" thickBot="1">
-      <c r="A32" s="153"/>
+    <row r="32" spans="1:64" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="158"/>
       <c r="B32" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="151"/>
+      <c r="C32" s="164"/>
       <c r="D32" s="8" t="s">
         <v>7</v>
       </c>
@@ -9416,7 +9418,7 @@
       <c r="BK32" s="10"/>
       <c r="BL32" s="26"/>
     </row>
-    <row r="33" spans="1:64" ht="7.2" customHeight="1" thickBot="1">
+    <row r="33" spans="1:64" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
       <c r="B33" s="49"/>
       <c r="C33" s="15"/>
@@ -9482,14 +9484,14 @@
       <c r="BK33" s="32"/>
       <c r="BL33" s="35"/>
     </row>
-    <row r="34" spans="1:64">
-      <c r="A34" s="162" t="s">
+    <row r="34" spans="1:64" ht="14.3" x14ac:dyDescent="0.25">
+      <c r="A34" s="170" t="s">
         <v>78</v>
       </c>
       <c r="B34" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="156" t="s">
+      <c r="C34" s="173" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -9642,12 +9644,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:64" ht="14.4" thickBot="1">
-      <c r="A35" s="153"/>
+    <row r="35" spans="1:64" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="158"/>
       <c r="B35" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="151"/>
+      <c r="C35" s="164"/>
       <c r="D35" s="8" t="s">
         <v>7</v>
       </c>
@@ -9728,11 +9730,11 @@
       </c>
       <c r="BL35" s="27"/>
     </row>
-    <row r="36" spans="1:64" ht="7.95" customHeight="1">
-      <c r="A36" s="152"/>
-      <c r="B36" s="170"/>
-      <c r="C36" s="150"/>
-      <c r="D36" s="163"/>
+    <row r="36" spans="1:64" ht="8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="156"/>
+      <c r="B36" s="159"/>
+      <c r="C36" s="162"/>
+      <c r="D36" s="150"/>
       <c r="E36" s="20"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
@@ -9794,79 +9796,79 @@
       <c r="BK36" s="19"/>
       <c r="BL36" s="24"/>
     </row>
-    <row r="37" spans="1:64" ht="14.25" customHeight="1">
-      <c r="A37" s="169"/>
-      <c r="B37" s="171"/>
-      <c r="C37" s="173"/>
-      <c r="D37" s="164"/>
-      <c r="E37" s="166" t="s">
+    <row r="37" spans="1:64" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="157"/>
+      <c r="B37" s="160"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="151"/>
+      <c r="E37" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="167"/>
-      <c r="G37" s="167"/>
-      <c r="H37" s="167"/>
-      <c r="I37" s="167"/>
-      <c r="J37" s="167"/>
-      <c r="K37" s="167"/>
-      <c r="L37" s="167"/>
-      <c r="M37" s="167"/>
-      <c r="N37" s="167"/>
-      <c r="O37" s="167"/>
-      <c r="P37" s="167"/>
-      <c r="Q37" s="167"/>
-      <c r="R37" s="167"/>
-      <c r="S37" s="167"/>
-      <c r="T37" s="167"/>
-      <c r="U37" s="167"/>
-      <c r="V37" s="167"/>
-      <c r="W37" s="167"/>
-      <c r="X37" s="167"/>
-      <c r="Y37" s="167"/>
-      <c r="Z37" s="167"/>
-      <c r="AA37" s="167"/>
-      <c r="AB37" s="167"/>
-      <c r="AC37" s="167"/>
-      <c r="AD37" s="167"/>
-      <c r="AE37" s="167"/>
-      <c r="AF37" s="167"/>
-      <c r="AG37" s="167"/>
-      <c r="AH37" s="167"/>
-      <c r="AI37" s="167"/>
-      <c r="AJ37" s="167"/>
-      <c r="AK37" s="167"/>
-      <c r="AL37" s="167"/>
-      <c r="AM37" s="167"/>
-      <c r="AN37" s="167"/>
-      <c r="AO37" s="167"/>
-      <c r="AP37" s="167"/>
-      <c r="AQ37" s="167"/>
-      <c r="AR37" s="167"/>
-      <c r="AS37" s="167"/>
-      <c r="AT37" s="167"/>
-      <c r="AU37" s="167"/>
-      <c r="AV37" s="167"/>
-      <c r="AW37" s="167"/>
-      <c r="AX37" s="167"/>
-      <c r="AY37" s="167"/>
-      <c r="AZ37" s="167"/>
-      <c r="BA37" s="167"/>
-      <c r="BB37" s="167"/>
-      <c r="BC37" s="167"/>
-      <c r="BD37" s="167"/>
-      <c r="BE37" s="167"/>
-      <c r="BF37" s="167"/>
-      <c r="BG37" s="167"/>
-      <c r="BH37" s="167"/>
-      <c r="BI37" s="167"/>
-      <c r="BJ37" s="167"/>
-      <c r="BK37" s="167"/>
-      <c r="BL37" s="168"/>
+      <c r="F37" s="154"/>
+      <c r="G37" s="154"/>
+      <c r="H37" s="154"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="154"/>
+      <c r="K37" s="154"/>
+      <c r="L37" s="154"/>
+      <c r="M37" s="154"/>
+      <c r="N37" s="154"/>
+      <c r="O37" s="154"/>
+      <c r="P37" s="154"/>
+      <c r="Q37" s="154"/>
+      <c r="R37" s="154"/>
+      <c r="S37" s="154"/>
+      <c r="T37" s="154"/>
+      <c r="U37" s="154"/>
+      <c r="V37" s="154"/>
+      <c r="W37" s="154"/>
+      <c r="X37" s="154"/>
+      <c r="Y37" s="154"/>
+      <c r="Z37" s="154"/>
+      <c r="AA37" s="154"/>
+      <c r="AB37" s="154"/>
+      <c r="AC37" s="154"/>
+      <c r="AD37" s="154"/>
+      <c r="AE37" s="154"/>
+      <c r="AF37" s="154"/>
+      <c r="AG37" s="154"/>
+      <c r="AH37" s="154"/>
+      <c r="AI37" s="154"/>
+      <c r="AJ37" s="154"/>
+      <c r="AK37" s="154"/>
+      <c r="AL37" s="154"/>
+      <c r="AM37" s="154"/>
+      <c r="AN37" s="154"/>
+      <c r="AO37" s="154"/>
+      <c r="AP37" s="154"/>
+      <c r="AQ37" s="154"/>
+      <c r="AR37" s="154"/>
+      <c r="AS37" s="154"/>
+      <c r="AT37" s="154"/>
+      <c r="AU37" s="154"/>
+      <c r="AV37" s="154"/>
+      <c r="AW37" s="154"/>
+      <c r="AX37" s="154"/>
+      <c r="AY37" s="154"/>
+      <c r="AZ37" s="154"/>
+      <c r="BA37" s="154"/>
+      <c r="BB37" s="154"/>
+      <c r="BC37" s="154"/>
+      <c r="BD37" s="154"/>
+      <c r="BE37" s="154"/>
+      <c r="BF37" s="154"/>
+      <c r="BG37" s="154"/>
+      <c r="BH37" s="154"/>
+      <c r="BI37" s="154"/>
+      <c r="BJ37" s="154"/>
+      <c r="BK37" s="154"/>
+      <c r="BL37" s="155"/>
     </row>
-    <row r="38" spans="1:64" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="153"/>
-      <c r="B38" s="172"/>
-      <c r="C38" s="151"/>
-      <c r="D38" s="165"/>
+    <row r="38" spans="1:64" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="158"/>
+      <c r="B38" s="161"/>
+      <c r="C38" s="164"/>
+      <c r="D38" s="152"/>
       <c r="E38" s="16"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
@@ -9928,14 +9930,14 @@
       <c r="BK38" s="17"/>
       <c r="BL38" s="18"/>
     </row>
-    <row r="39" spans="1:64">
-      <c r="A39" s="152">
+    <row r="39" spans="1:64" ht="14.3" x14ac:dyDescent="0.25">
+      <c r="A39" s="156">
         <v>3</v>
       </c>
       <c r="B39" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="150">
+      <c r="C39" s="162">
         <v>3</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -10034,12 +10036,12 @@
       <c r="BK39" s="13"/>
       <c r="BL39" s="14"/>
     </row>
-    <row r="40" spans="1:64" ht="14.4" thickBot="1">
-      <c r="A40" s="153"/>
+    <row r="40" spans="1:64" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="158"/>
       <c r="B40" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="151"/>
+      <c r="C40" s="164"/>
       <c r="D40" s="8" t="s">
         <v>7</v>
       </c>
@@ -10120,7 +10122,7 @@
       <c r="BK40" s="10"/>
       <c r="BL40" s="11"/>
     </row>
-    <row r="41" spans="1:64" ht="7.2" customHeight="1" thickBot="1">
+    <row r="41" spans="1:64" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28"/>
       <c r="B41" s="49"/>
       <c r="C41" s="15"/>
@@ -10186,14 +10188,14 @@
       <c r="BK41" s="32"/>
       <c r="BL41" s="35"/>
     </row>
-    <row r="42" spans="1:64">
-      <c r="A42" s="152">
+    <row r="42" spans="1:64" ht="14.3" x14ac:dyDescent="0.25">
+      <c r="A42" s="156">
         <v>2</v>
       </c>
-      <c r="B42" s="154" t="s">
+      <c r="B42" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="150">
+      <c r="C42" s="162">
         <v>2</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -10308,10 +10310,10 @@
       </c>
       <c r="BL42" s="7"/>
     </row>
-    <row r="43" spans="1:64" ht="14.4" thickBot="1">
-      <c r="A43" s="153"/>
-      <c r="B43" s="155"/>
-      <c r="C43" s="151"/>
+    <row r="43" spans="1:64" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="158"/>
+      <c r="B43" s="172"/>
+      <c r="C43" s="164"/>
       <c r="D43" s="8" t="s">
         <v>7</v>
       </c>
@@ -10422,11 +10424,22 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E37:BL37"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C34:C35"/>
     <mergeCell ref="AH1:AZ1"/>
     <mergeCell ref="BA1:BL1"/>
     <mergeCell ref="A39:A40"/>
@@ -10443,22 +10456,11 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E37:BL37"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:BL5 E38:BL38 E7:BL8 E10:BL11 E13:BL14 E16:BL17 E19:BL20 E22:BL23 E25:BL26 E31:BL32 E28:BL29 E34:BL35">
     <cfRule type="cellIs" dxfId="97" priority="4" operator="notEqual">
@@ -10483,30 +10485,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM62"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A31"/>
+      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="52" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="52" customWidth="1"/>
     <col min="2" max="2" width="9" style="52"/>
-    <col min="3" max="3" width="4.6640625" style="52" customWidth="1"/>
-    <col min="4" max="27" width="3.109375" style="52" customWidth="1"/>
-    <col min="28" max="28" width="4.6640625" style="52" customWidth="1"/>
-    <col min="29" max="30" width="12.88671875" style="52" customWidth="1"/>
-    <col min="31" max="31" width="19.44140625" style="52" customWidth="1"/>
+    <col min="3" max="3" width="4.625" style="52" customWidth="1"/>
+    <col min="4" max="27" width="3.125" style="52" customWidth="1"/>
+    <col min="28" max="28" width="4.625" style="52" customWidth="1"/>
+    <col min="29" max="30" width="12.875" style="52" customWidth="1"/>
+    <col min="31" max="31" width="19.5" style="52" customWidth="1"/>
     <col min="32" max="33" width="9" style="52"/>
-    <col min="34" max="34" width="14.88671875" style="52" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.875" style="52" bestFit="1" customWidth="1"/>
     <col min="35" max="16384" width="9" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="40.049999999999997" customHeight="1" thickBot="1">
+    <row r="1" spans="1:39" ht="40.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="174" t="s">
         <v>71</v>
       </c>
@@ -10537,7 +10539,7 @@
       <c r="AA1" s="175"/>
       <c r="AB1" s="175"/>
     </row>
-    <row r="2" spans="1:39" ht="49.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="61" t="s">
         <v>5</v>
       </c>
@@ -10653,7 +10655,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="18" customHeight="1">
+    <row r="3" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="179" t="s">
         <v>2</v>
       </c>
@@ -10760,7 +10762,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="18" customHeight="1">
+    <row r="4" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="177"/>
       <c r="B4" s="73"/>
       <c r="C4" s="55">
@@ -10863,7 +10865,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="18" customHeight="1">
+    <row r="5" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="177"/>
       <c r="B5" s="73"/>
       <c r="C5" s="55">
@@ -10966,7 +10968,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="18" customHeight="1">
+    <row r="6" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="177"/>
       <c r="B6" s="73"/>
       <c r="C6" s="55">
@@ -11067,7 +11069,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="7" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="177"/>
       <c r="B7" s="74" t="s">
         <v>7</v>
@@ -11170,7 +11172,7 @@
         <v>L1</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="18" customHeight="1">
+    <row r="8" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="177"/>
       <c r="B8" s="94"/>
       <c r="C8" s="95">
@@ -11271,7 +11273,7 @@
         <v>L1</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="18" customHeight="1">
+    <row r="9" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="177"/>
       <c r="B9" s="73"/>
       <c r="C9" s="55">
@@ -11372,7 +11374,7 @@
         <v>L1</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="18" customHeight="1">
+    <row r="10" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="177"/>
       <c r="B10" s="73" t="s">
         <v>25</v>
@@ -11477,7 +11479,7 @@
         <v>L1</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="18" customHeight="1">
+    <row r="11" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="177"/>
       <c r="B11" s="73"/>
       <c r="C11" s="55">
@@ -11580,7 +11582,7 @@
         <v>L1</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="12" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="177"/>
       <c r="B12" s="74" t="s">
         <v>26</v>
@@ -11685,7 +11687,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="18" customHeight="1">
+    <row r="13" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="177"/>
       <c r="B13" s="94"/>
       <c r="C13" s="95">
@@ -11788,7 +11790,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="18" customHeight="1">
+    <row r="14" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="177"/>
       <c r="B14" s="73"/>
       <c r="C14" s="55">
@@ -11891,7 +11893,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="18" customHeight="1">
+    <row r="15" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="177"/>
       <c r="B15" s="73"/>
       <c r="C15" s="55">
@@ -11994,7 +11996,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="18" customHeight="1">
+    <row r="16" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="177"/>
       <c r="B16" s="73"/>
       <c r="C16" s="55">
@@ -12097,7 +12099,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="17" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="177"/>
       <c r="B17" s="74"/>
       <c r="C17" s="58">
@@ -12198,7 +12200,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="18" customHeight="1">
+    <row r="18" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="177"/>
       <c r="B18" s="94" t="s">
         <v>35</v>
@@ -12303,7 +12305,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="18" customHeight="1">
+    <row r="19" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="177"/>
       <c r="B19" s="73"/>
       <c r="C19" s="55">
@@ -12404,7 +12406,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="18" customHeight="1">
+    <row r="20" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="177"/>
       <c r="B20" s="73"/>
       <c r="C20" s="55">
@@ -12505,7 +12507,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="18" customHeight="1">
+    <row r="21" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="177"/>
       <c r="B21" s="73"/>
       <c r="C21" s="55">
@@ -12608,7 +12610,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="22" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="177"/>
       <c r="B22" s="74"/>
       <c r="C22" s="58">
@@ -12709,7 +12711,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="18" customHeight="1">
+    <row r="23" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="177"/>
       <c r="B23" s="94"/>
       <c r="C23" s="95">
@@ -12810,7 +12812,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="18" customHeight="1">
+    <row r="24" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="177"/>
       <c r="B24" s="73"/>
       <c r="C24" s="55">
@@ -12913,7 +12915,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="18" customHeight="1">
+    <row r="25" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="177"/>
       <c r="B25" s="73"/>
       <c r="C25" s="55">
@@ -13014,7 +13016,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="18" customHeight="1">
+    <row r="26" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="177"/>
       <c r="B26" s="73"/>
       <c r="C26" s="55">
@@ -13115,7 +13117,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="27" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="177"/>
       <c r="B27" s="74" t="s">
         <v>27</v>
@@ -13220,7 +13222,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="18" customHeight="1">
+    <row r="28" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="177"/>
       <c r="B28" s="94"/>
       <c r="C28" s="95">
@@ -13321,7 +13323,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="18" customHeight="1">
+    <row r="29" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="177"/>
       <c r="B29" s="73"/>
       <c r="C29" s="55">
@@ -13422,7 +13424,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="18" customHeight="1">
+    <row r="30" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="177"/>
       <c r="B30" s="73"/>
       <c r="C30" s="55">
@@ -13523,7 +13525,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="31" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="178"/>
       <c r="B31" s="104" t="s">
         <v>29</v>
@@ -13624,7 +13626,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="18" customHeight="1" thickTop="1" thickBot="1">
+    <row r="32" spans="1:39" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="176" t="s">
         <v>36</v>
       </c>
@@ -13731,7 +13733,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="18" customHeight="1">
+    <row r="33" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="177"/>
       <c r="B33" s="100"/>
       <c r="C33" s="95">
@@ -13834,7 +13836,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="18" customHeight="1">
+    <row r="34" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="177"/>
       <c r="B34" s="54"/>
       <c r="C34" s="55">
@@ -13937,7 +13939,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="18" customHeight="1">
+    <row r="35" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="177"/>
       <c r="B35" s="54"/>
       <c r="C35" s="55">
@@ -14040,7 +14042,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="18" customHeight="1">
+    <row r="36" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="177"/>
       <c r="B36" s="54" t="s">
         <v>31</v>
@@ -14145,7 +14147,7 @@
         <v>L2</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="37" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="177"/>
       <c r="B37" s="58"/>
       <c r="C37" s="58">
@@ -14248,7 +14250,7 @@
         <v>L2</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="18" customHeight="1">
+    <row r="38" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="177"/>
       <c r="B38" s="100" t="s">
         <v>30</v>
@@ -14353,7 +14355,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="18" customHeight="1">
+    <row r="39" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="177"/>
       <c r="B39" s="54"/>
       <c r="C39" s="55">
@@ -14454,7 +14456,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="18" customHeight="1">
+    <row r="40" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="177"/>
       <c r="B40" s="57"/>
       <c r="C40" s="55">
@@ -14557,7 +14559,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="18" customHeight="1">
+    <row r="41" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="177"/>
       <c r="B41" s="54"/>
       <c r="C41" s="55">
@@ -14660,7 +14662,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="42" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="177"/>
       <c r="B42" s="58" t="s">
         <v>32</v>
@@ -14765,7 +14767,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="18" customHeight="1">
+    <row r="43" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="177"/>
       <c r="B43" s="100"/>
       <c r="C43" s="95">
@@ -14868,7 +14870,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="18" customHeight="1">
+    <row r="44" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="177"/>
       <c r="B44" s="54"/>
       <c r="C44" s="55">
@@ -14971,7 +14973,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="18" customHeight="1">
+    <row r="45" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="177"/>
       <c r="B45" s="57"/>
       <c r="C45" s="55">
@@ -15074,7 +15076,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="18" customHeight="1">
+    <row r="46" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="177"/>
       <c r="B46" s="54"/>
       <c r="C46" s="55">
@@ -15177,7 +15179,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="47" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="177"/>
       <c r="B47" s="58" t="s">
         <v>33</v>
@@ -15282,7 +15284,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="18" customHeight="1">
+    <row r="48" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="177"/>
       <c r="B48" s="100"/>
       <c r="C48" s="95">
@@ -15385,7 +15387,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="18" customHeight="1">
+    <row r="49" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="177"/>
       <c r="B49" s="54"/>
       <c r="C49" s="55">
@@ -15488,7 +15490,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="50" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="178"/>
       <c r="B50" s="105" t="s">
         <v>29</v>
@@ -15593,7 +15595,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="18" customHeight="1" thickTop="1">
+    <row r="51" spans="1:39" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" s="177" t="s">
         <v>37</v>
       </c>
@@ -15700,7 +15702,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="52" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="177"/>
       <c r="B52" s="74"/>
       <c r="C52" s="58">
@@ -15803,7 +15805,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="18" customHeight="1">
+    <row r="53" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="177"/>
       <c r="B53" s="94"/>
       <c r="C53" s="95">
@@ -15906,7 +15908,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:39" ht="18" customHeight="1">
+    <row r="54" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="177"/>
       <c r="B54" s="73"/>
       <c r="C54" s="55">
@@ -16007,7 +16009,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="18" customHeight="1">
+    <row r="55" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="177"/>
       <c r="B55" s="73"/>
       <c r="C55" s="55">
@@ -16112,7 +16114,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:39" ht="18" customHeight="1">
+    <row r="56" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="177"/>
       <c r="B56" s="73"/>
       <c r="C56" s="55">
@@ -16213,7 +16215,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="57" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="177"/>
       <c r="B57" s="74"/>
       <c r="C57" s="58">
@@ -16318,7 +16320,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:39" ht="18" customHeight="1">
+    <row r="58" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="177"/>
       <c r="B58" s="94"/>
       <c r="C58" s="95">
@@ -16419,7 +16421,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:39" ht="18" customHeight="1">
+    <row r="59" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="177"/>
       <c r="B59" s="73"/>
       <c r="C59" s="55">
@@ -16524,7 +16526,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:39" ht="18" customHeight="1">
+    <row r="60" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="177"/>
       <c r="B60" s="73"/>
       <c r="C60" s="55">
@@ -16625,7 +16627,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:39" ht="18" customHeight="1">
+    <row r="61" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="177"/>
       <c r="B61" s="73"/>
       <c r="C61" s="55">
@@ -16728,7 +16730,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="62" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="180"/>
       <c r="B62" s="74" t="s">
         <v>29</v>
@@ -16870,30 +16872,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="52" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="52" customWidth="1"/>
     <col min="2" max="2" width="9" style="52"/>
-    <col min="3" max="3" width="4.6640625" style="52" customWidth="1"/>
-    <col min="4" max="27" width="3.109375" style="52" customWidth="1"/>
-    <col min="28" max="28" width="4.6640625" style="52" customWidth="1"/>
-    <col min="29" max="30" width="12.88671875" style="52" customWidth="1"/>
-    <col min="31" max="31" width="19.44140625" style="52" customWidth="1"/>
+    <col min="3" max="3" width="4.625" style="52" customWidth="1"/>
+    <col min="4" max="27" width="3.125" style="52" customWidth="1"/>
+    <col min="28" max="28" width="4.625" style="52" customWidth="1"/>
+    <col min="29" max="30" width="12.875" style="52" customWidth="1"/>
+    <col min="31" max="31" width="19.5" style="52" customWidth="1"/>
     <col min="32" max="33" width="9" style="52"/>
-    <col min="34" max="34" width="14.88671875" style="52" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.875" style="52" bestFit="1" customWidth="1"/>
     <col min="35" max="16384" width="9" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="40.049999999999997" customHeight="1" thickBot="1">
+    <row r="1" spans="1:39" ht="40.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="174" t="s">
         <v>71</v>
       </c>
@@ -16924,7 +16926,7 @@
       <c r="AA1" s="175"/>
       <c r="AB1" s="175"/>
     </row>
-    <row r="2" spans="1:39" ht="49.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="61" t="s">
         <v>5</v>
       </c>
@@ -17040,7 +17042,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="18" customHeight="1">
+    <row r="3" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="179" t="s">
         <v>2</v>
       </c>
@@ -17147,7 +17149,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="18" customHeight="1">
+    <row r="4" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="177"/>
       <c r="B4" s="73"/>
       <c r="C4" s="55">
@@ -17250,7 +17252,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="18" customHeight="1">
+    <row r="5" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="177"/>
       <c r="B5" s="73"/>
       <c r="C5" s="55">
@@ -17353,7 +17355,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="18" customHeight="1">
+    <row r="6" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="177"/>
       <c r="B6" s="73"/>
       <c r="C6" s="55">
@@ -17454,7 +17456,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="7" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="177"/>
       <c r="B7" s="74" t="s">
         <v>7</v>
@@ -17559,7 +17561,7 @@
         <v>L1</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="18" customHeight="1">
+    <row r="8" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="177"/>
       <c r="B8" s="94"/>
       <c r="C8" s="95">
@@ -17662,7 +17664,7 @@
         <v>L1</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="18" customHeight="1">
+    <row r="9" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="177"/>
       <c r="B9" s="73"/>
       <c r="C9" s="55">
@@ -17765,7 +17767,7 @@
         <v>L1</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="18" customHeight="1">
+    <row r="10" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="177"/>
       <c r="B10" s="73" t="s">
         <v>25</v>
@@ -17870,7 +17872,7 @@
         <v>L1</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="18" customHeight="1">
+    <row r="11" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="177"/>
       <c r="B11" s="73"/>
       <c r="C11" s="55">
@@ -17973,7 +17975,7 @@
         <v>L1</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="12" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="177"/>
       <c r="B12" s="74" t="s">
         <v>26</v>
@@ -18078,7 +18080,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="18" customHeight="1">
+    <row r="13" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="177"/>
       <c r="B13" s="94"/>
       <c r="C13" s="95">
@@ -18181,7 +18183,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="18" customHeight="1">
+    <row r="14" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="177"/>
       <c r="B14" s="73"/>
       <c r="C14" s="55">
@@ -18284,7 +18286,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="18" customHeight="1">
+    <row r="15" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="177"/>
       <c r="B15" s="73"/>
       <c r="C15" s="55">
@@ -18387,7 +18389,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="18" customHeight="1">
+    <row r="16" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="177"/>
       <c r="B16" s="73"/>
       <c r="C16" s="55">
@@ -18488,7 +18490,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="17" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="177"/>
       <c r="B17" s="74"/>
       <c r="C17" s="58">
@@ -18589,7 +18591,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="18" customHeight="1">
+    <row r="18" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="177"/>
       <c r="B18" s="94" t="s">
         <v>35</v>
@@ -18694,7 +18696,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="18" customHeight="1">
+    <row r="19" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="177"/>
       <c r="B19" s="73"/>
       <c r="C19" s="55">
@@ -18795,7 +18797,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="18" customHeight="1">
+    <row r="20" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="177"/>
       <c r="B20" s="73"/>
       <c r="C20" s="55">
@@ -18896,7 +18898,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="18" customHeight="1">
+    <row r="21" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="177"/>
       <c r="B21" s="73"/>
       <c r="C21" s="55">
@@ -18999,7 +19001,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="22" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="177"/>
       <c r="B22" s="74"/>
       <c r="C22" s="58">
@@ -19100,7 +19102,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="18" customHeight="1">
+    <row r="23" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="177"/>
       <c r="B23" s="94"/>
       <c r="C23" s="95">
@@ -19201,7 +19203,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="18" customHeight="1">
+    <row r="24" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="177"/>
       <c r="B24" s="73"/>
       <c r="C24" s="55">
@@ -19304,7 +19306,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="18" customHeight="1">
+    <row r="25" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="177"/>
       <c r="B25" s="73"/>
       <c r="C25" s="55">
@@ -19405,7 +19407,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="18" customHeight="1">
+    <row r="26" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="177"/>
       <c r="B26" s="73"/>
       <c r="C26" s="55">
@@ -19506,7 +19508,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="27" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="177"/>
       <c r="B27" s="74" t="s">
         <v>27</v>
@@ -19611,7 +19613,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="18" customHeight="1">
+    <row r="28" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="177"/>
       <c r="B28" s="94"/>
       <c r="C28" s="95">
@@ -19712,7 +19714,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="18" customHeight="1">
+    <row r="29" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="177"/>
       <c r="B29" s="73"/>
       <c r="C29" s="55">
@@ -19813,7 +19815,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="18" customHeight="1">
+    <row r="30" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="177"/>
       <c r="B30" s="73"/>
       <c r="C30" s="55">
@@ -19914,7 +19916,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="31" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="178"/>
       <c r="B31" s="104" t="s">
         <v>29</v>
@@ -20015,7 +20017,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="18" customHeight="1" thickTop="1" thickBot="1">
+    <row r="32" spans="1:39" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="176" t="s">
         <v>36</v>
       </c>
@@ -20122,7 +20124,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="18" customHeight="1">
+    <row r="33" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="177"/>
       <c r="B33" s="100"/>
       <c r="C33" s="95">
@@ -20225,7 +20227,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="18" customHeight="1">
+    <row r="34" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="177"/>
       <c r="B34" s="54"/>
       <c r="C34" s="55">
@@ -20328,7 +20330,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="18" customHeight="1">
+    <row r="35" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="177"/>
       <c r="B35" s="54"/>
       <c r="C35" s="55">
@@ -20431,7 +20433,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="18" customHeight="1">
+    <row r="36" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="177"/>
       <c r="B36" s="54" t="s">
         <v>31</v>
@@ -20536,7 +20538,7 @@
         <v>L2</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="37" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="177"/>
       <c r="B37" s="58"/>
       <c r="C37" s="58">
@@ -20639,7 +20641,7 @@
         <v>L2</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="18" customHeight="1">
+    <row r="38" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="177"/>
       <c r="B38" s="100" t="s">
         <v>30</v>
@@ -20744,7 +20746,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="18" customHeight="1">
+    <row r="39" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="177"/>
       <c r="B39" s="54"/>
       <c r="C39" s="55">
@@ -20845,7 +20847,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="18" customHeight="1">
+    <row r="40" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="177"/>
       <c r="B40" s="57"/>
       <c r="C40" s="55">
@@ -20948,7 +20950,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="18" customHeight="1">
+    <row r="41" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="177"/>
       <c r="B41" s="54"/>
       <c r="C41" s="55">
@@ -21051,7 +21053,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="42" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="177"/>
       <c r="B42" s="58" t="s">
         <v>32</v>
@@ -21156,7 +21158,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="18" customHeight="1">
+    <row r="43" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="177"/>
       <c r="B43" s="100"/>
       <c r="C43" s="95">
@@ -21259,7 +21261,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="18" customHeight="1">
+    <row r="44" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="177"/>
       <c r="B44" s="54"/>
       <c r="C44" s="55">
@@ -21362,7 +21364,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="18" customHeight="1">
+    <row r="45" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="177"/>
       <c r="B45" s="57"/>
       <c r="C45" s="55">
@@ -21465,7 +21467,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="18" customHeight="1">
+    <row r="46" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="177"/>
       <c r="B46" s="54"/>
       <c r="C46" s="55">
@@ -21568,7 +21570,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="47" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="177"/>
       <c r="B47" s="58" t="s">
         <v>33</v>
@@ -21673,7 +21675,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="18" customHeight="1">
+    <row r="48" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="177"/>
       <c r="B48" s="100"/>
       <c r="C48" s="95">
@@ -21776,7 +21778,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="18" customHeight="1">
+    <row r="49" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="177"/>
       <c r="B49" s="54"/>
       <c r="C49" s="55">
@@ -21879,7 +21881,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="50" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="178"/>
       <c r="B50" s="105" t="s">
         <v>29</v>
@@ -21984,7 +21986,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="18" customHeight="1" thickTop="1">
+    <row r="51" spans="1:39" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" s="177" t="s">
         <v>37</v>
       </c>
@@ -22091,7 +22093,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="52" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="177"/>
       <c r="B52" s="74"/>
       <c r="C52" s="58">
@@ -22194,7 +22196,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="18" customHeight="1">
+    <row r="53" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="177"/>
       <c r="B53" s="94"/>
       <c r="C53" s="95">
@@ -22297,7 +22299,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:39" ht="18" customHeight="1">
+    <row r="54" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="177"/>
       <c r="B54" s="73"/>
       <c r="C54" s="55">
@@ -22398,7 +22400,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="18" customHeight="1">
+    <row r="55" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="177"/>
       <c r="B55" s="73"/>
       <c r="C55" s="55">
@@ -22503,7 +22505,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:39" ht="18" customHeight="1">
+    <row r="56" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="177"/>
       <c r="B56" s="73"/>
       <c r="C56" s="55">
@@ -22604,7 +22606,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="57" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="177"/>
       <c r="B57" s="74"/>
       <c r="C57" s="58">
@@ -22709,7 +22711,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:39" ht="18" customHeight="1">
+    <row r="58" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="177"/>
       <c r="B58" s="94"/>
       <c r="C58" s="95">
@@ -22810,7 +22812,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:39" ht="18" customHeight="1">
+    <row r="59" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="177"/>
       <c r="B59" s="73"/>
       <c r="C59" s="55">
@@ -22915,7 +22917,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:39" ht="18" customHeight="1">
+    <row r="60" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="177"/>
       <c r="B60" s="73"/>
       <c r="C60" s="55">
@@ -23016,7 +23018,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:39" ht="18" customHeight="1">
+    <row r="61" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="177"/>
       <c r="B61" s="73"/>
       <c r="C61" s="55">
@@ -23119,7 +23121,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="62" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="180"/>
       <c r="B62" s="74" t="s">
         <v>29</v>
